--- a/data/dos_mqtt_iot/models/xgb/results/0.01_all.xlsx
+++ b/data/dos_mqtt_iot/models/xgb/results/0.01_all.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="55">
   <si>
     <t>start_idx_attack</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>fpr</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
   <si>
     <t>pr</t>
@@ -93,110 +90,6 @@
   </si>
   <si>
     <t>WILL_DDoS_AD</t>
-  </si>
-  <si>
-    <t>[0.         0.00200381 0.00200584 0.00200685 0.00200989 0.59978269
- 0.59978573 0.59978877 0.59978979 0.59979485 0.59979891 0.599806
- 0.59981107 0.5998131  0.72028818 0.72029527 0.7202973  0.72030338
- 0.72031352 0.7203196  0.72032973 0.72034088 0.72034392 0.72035304
- 0.7203571  0.72036622 0.72037636 0.72038852 0.72040474 0.72041588
- 0.72042399 0.72043818 0.72045947 0.72046758 0.72048582 0.72050001
- 0.72051927 0.72053954 0.72056184 0.72056589 0.72059224 0.72060948
- 0.72062164 0.72062671 0.72064394 0.7206561  0.72070678 0.72075948
- 0.80433987 0.8043571  0.85361928 0.85362131 0.85362333 0.85362536
- 0.8536355  0.85363854 0.85363955 0.85364361 0.85364563 0.85365171
- 0.85365273 0.85366894 0.86214739 0.86215145 0.87010791 0.87010994
- 0.87188063 0.87188063 0.87188469 0.87188773 0.87188773 0.96784473
- 0.96784473 0.96784473 0.96784473 0.96784676 0.96784878 0.96784878
- 0.96784878 0.96945123 0.96945123 0.96945123 0.96945123 0.96945123
- 0.96945123 0.96945123 0.96945123 0.96945123 0.96945325 0.96945325
- 0.96945325 0.96945325 0.96945325 0.96945325 0.96945325 0.96945325
- 0.96945325 0.96945325 0.96945325 0.96945325 0.96945325 0.96945528
- 0.96945528 0.96945528 0.96945629 0.96945832 0.96945832 0.96945832
- 0.96945832 0.96945832 0.96945832 0.96945832 0.96945832 0.96945832
- 0.96945832 0.96945934 0.96946136 0.96946136 0.96946136 0.96946136
- 0.96946136 0.96946136 0.96980496 0.96980496 0.96980496 0.96980496
- 0.96980496 0.96980496 0.96980597 0.96980597 0.96980597 0.96980597
- 0.96980597 0.96980597 0.96980597 0.96980597 0.96980699 0.97140233
- 0.97140233 0.97140233 0.97140233 0.97140233 0.97140233 0.97140233
- 0.97140233 0.97140233 0.97140233 0.9717287  0.9717287  0.9717287
- 0.97172972 0.97172972 0.97172972 0.97172972 0.97172972 0.97172972
- 0.97172972 0.97172972 0.97173073 0.97173073 0.97173073 0.97173276
- 0.97173276 0.97173276 0.97173377 0.97173377 0.97511907 0.97511907
- 0.97511907 0.97511907 0.97511907 0.97511907 0.97511907 0.97511907
- 0.97511907 0.97511907 0.97511907 0.97511907 0.97512008 0.97512008
- 0.97512008 0.97512008 0.97512008 0.9751211  0.9751211  0.97512211
- 0.97512211 0.97512211 0.97512211 0.97512211 0.97512211 0.97512211
- 0.97512312 0.97512312 0.97512312 0.97512312 0.97512312 0.97512312
- 0.97512312 0.97512312 0.97512414 0.97512414 0.97512414 0.97512414
- 0.97512616 0.97512616 0.97512616 0.97512718 0.97512718 0.97512718
- 0.97512718 0.97512718 0.97512718 0.97513123 0.97513123 0.97513123
- 0.97513326 0.97513427 0.97513427 0.97513529 0.97513529 0.97513529
- 0.97513934 0.97513934 0.97513934 0.97514035 0.97514238 0.97514238
- 0.97514238 0.97521536 0.97521941 0.97522144 0.97522144 0.97522245
- 0.97522448 0.97522448 0.97522549 0.97522752 0.97522752 0.97522752
- 0.97522752 0.97522752 0.97522853 0.97522853 0.97522853 0.97522853
- 0.97523157 0.97523157 0.97523461 0.97523461 0.97523461 0.97523461
- 0.97523563 0.97523563 0.97523664 0.97523664 0.97523664 0.97523867
- 0.97523867 0.9752407  0.97524374 0.97524374 0.97526097 0.97526097
- 0.97526198 0.97526502 0.97526908 0.97526908 0.97526908 0.97526908
- 0.97527009 0.97681172 0.97681172 0.97681172 0.97681172 0.97681172
- 0.97681172 0.97681172 0.97681172 0.97681374 0.97681374 0.97681374
- 0.97681374 0.97681374 0.97695463 0.97695666 0.97695666 0.97695666
- 0.97713606 0.97715329 0.97715329 0.97715329 0.97715329 0.9771543
- 0.97715633 0.97716038 0.97716038 0.97716241 0.97716241 0.97716444
- 0.97716748 0.97716748 0.97716748 0.97716849 0.97717052 0.97717052
- 0.97717052 0.97717052 0.97717153 0.97717153 0.97717153 0.97717153
- 0.97717153 0.97717153 0.97717153 0.97717153 0.97717153 0.97717153
- 0.97717153 0.97717153 0.97717153 0.97717255 0.97717255 0.97717255
- 0.97718978 0.97719079 0.97719079 0.9772739  0.97727593 0.97727593
- 0.98224137 0.98224137 0.98224137 0.98692707 0.98692707 0.98697471
- 0.98697471 0.98697471 0.98697471 0.98697471 0.98697471 0.98697471
- 0.98697471 0.98697471 0.98697471 0.98697471 0.98697471 0.98697471
- 0.98697471 0.98698687 0.98698687 0.98698687 0.98698687 0.98698687
- 0.98698687 0.98698687 0.98698687 0.98698687 0.98698687 0.98698687
- 0.98698687 0.9869889  0.9869889  0.9869889  0.9869889  0.9869889
- 0.9869889  0.99932395 0.99932395 0.99934321 0.99934321 0.99934321
- 0.99934321 0.99934321 0.99934321 0.99934321 0.99934321 0.99934321
- 0.99934321 0.99934321 0.99934321 0.99934321 0.99934524 0.99934524
- 0.99934524 0.99934524 0.99934524 0.99934524 0.99934524 0.99934524
- 0.99934524 0.99934524 0.99934524 0.99988851 0.99988851 0.99988851
- 0.99988851 0.99988851 0.99988851 0.99988851 0.99988851 0.99988851
- 0.99988851 0.99988851 0.99988851 0.99988851 0.99988851 0.99988851
- 0.99988851 0.99988851 0.99988851 0.99988851 0.99988851 0.99988851
- 0.99988851 0.99988851 0.99992601 0.99992601 0.99992601 0.99992601
- 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601
- 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601
- 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601
- 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601 0.99992601
- 0.99992601 0.99992601 0.99992601 0.99999189 0.99999189 1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.        ]</t>
   </si>
   <si>
     <t>attack_type_</t>
@@ -659,13 +552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,11 +610,8 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>24102</v>
       </c>
@@ -729,10 +619,10 @@
         <v>35538</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
       <c r="E2">
         <v>24366</v>
@@ -744,37 +634,34 @@
         <v>8145</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.08336402701043585</v>
       </c>
       <c r="L2">
-        <v>0.08336402701043585</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7466</v>
       </c>
       <c r="O2">
-        <v>7466</v>
+        <v>679</v>
       </c>
       <c r="P2">
-        <v>679</v>
+        <v>0.01</v>
       </c>
       <c r="Q2">
-        <v>0.01</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>79207</v>
       </c>
@@ -797,37 +684,34 @@
         <v>17324</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.07284691757099977</v>
       </c>
       <c r="L3">
-        <v>0.07284691757099977</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>16062</v>
       </c>
       <c r="O3">
-        <v>16062</v>
+        <v>1262</v>
       </c>
       <c r="P3">
-        <v>1262</v>
+        <v>0.01</v>
       </c>
       <c r="Q3">
-        <v>0.01</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>100321</v>
       </c>
@@ -850,37 +734,34 @@
         <v>15881</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.04495938542912915</v>
       </c>
       <c r="L4">
-        <v>0.04495938542912915</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>15167</v>
       </c>
       <c r="O4">
-        <v>15167</v>
+        <v>714</v>
       </c>
       <c r="P4">
-        <v>714</v>
+        <v>0.01</v>
       </c>
       <c r="Q4">
-        <v>0.01</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>141997</v>
       </c>
@@ -903,37 +784,34 @@
         <v>12026</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.0793281224014635</v>
       </c>
       <c r="L5">
-        <v>0.0793281224014635</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>11072</v>
       </c>
       <c r="O5">
-        <v>11072</v>
+        <v>954</v>
       </c>
       <c r="P5">
-        <v>954</v>
+        <v>0.01</v>
       </c>
       <c r="Q5">
-        <v>0.01</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>156967</v>
       </c>
@@ -956,37 +834,34 @@
         <v>7540</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.08289124668435013</v>
       </c>
       <c r="L6">
-        <v>0.08289124668435013</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6915</v>
       </c>
       <c r="O6">
-        <v>6915</v>
+        <v>625</v>
       </c>
       <c r="P6">
-        <v>625</v>
+        <v>0.01</v>
       </c>
       <c r="Q6">
-        <v>0.01</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>168352</v>
       </c>
@@ -1009,37 +884,34 @@
         <v>26163</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.05893819516110538</v>
       </c>
       <c r="L7">
-        <v>0.05893819516110538</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>24621</v>
       </c>
       <c r="O7">
-        <v>24621</v>
+        <v>1542</v>
       </c>
       <c r="P7">
-        <v>1542</v>
+        <v>0.01</v>
       </c>
       <c r="Q7">
-        <v>0.01</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>229247</v>
       </c>
@@ -1062,37 +934,34 @@
         <v>2278</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.02019315188762072</v>
       </c>
       <c r="L8">
-        <v>0.02019315188762072</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2232</v>
       </c>
       <c r="O8">
-        <v>2232</v>
+        <v>46</v>
       </c>
       <c r="P8">
-        <v>46</v>
+        <v>0.01</v>
       </c>
       <c r="Q8">
-        <v>0.01</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>239054</v>
       </c>
@@ -1115,37 +984,34 @@
         <v>4803</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.009577347491151364</v>
       </c>
       <c r="L9">
-        <v>0.009577347491151364</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>4757</v>
       </c>
       <c r="O9">
-        <v>4757</v>
+        <v>46</v>
       </c>
       <c r="P9">
-        <v>46</v>
+        <v>0.01</v>
       </c>
       <c r="Q9">
-        <v>0.01</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>275848</v>
       </c>
@@ -1168,37 +1034,34 @@
         <v>7719</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.01489830288897526</v>
       </c>
       <c r="L10">
-        <v>0.01489830288897526</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7604</v>
       </c>
       <c r="O10">
-        <v>7604</v>
+        <v>115</v>
       </c>
       <c r="P10">
-        <v>115</v>
+        <v>0.01</v>
       </c>
       <c r="Q10">
-        <v>0.01</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>285299</v>
       </c>
@@ -1221,37 +1084,34 @@
         <v>24635</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.03965902171706921</v>
       </c>
       <c r="L11">
-        <v>0.03965902171706921</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>23658</v>
       </c>
       <c r="O11">
-        <v>23658</v>
+        <v>977</v>
       </c>
       <c r="P11">
-        <v>977</v>
+        <v>0.01</v>
       </c>
       <c r="Q11">
-        <v>0.01</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>331597</v>
       </c>
@@ -1274,37 +1134,34 @@
         <v>19165</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.06877119749543438</v>
       </c>
       <c r="L12">
-        <v>0.06877119749543438</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>17847</v>
       </c>
       <c r="O12">
-        <v>17847</v>
+        <v>1318</v>
       </c>
       <c r="P12">
-        <v>1318</v>
+        <v>0.01</v>
       </c>
       <c r="Q12">
-        <v>0.01</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>359552</v>
       </c>
@@ -1327,37 +1184,34 @@
         <v>17269</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.02426313046499508</v>
       </c>
       <c r="L13">
-        <v>0.02426313046499508</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>16850</v>
       </c>
       <c r="O13">
-        <v>16850</v>
+        <v>419</v>
       </c>
       <c r="P13">
-        <v>419</v>
+        <v>0.01</v>
       </c>
       <c r="Q13">
-        <v>0.01</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>388550</v>
       </c>
@@ -1380,37 +1234,34 @@
         <v>23752</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.02576625126305153</v>
       </c>
       <c r="L14">
-        <v>0.02576625126305153</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>23140</v>
       </c>
       <c r="O14">
-        <v>23140</v>
+        <v>612</v>
       </c>
       <c r="P14">
-        <v>612</v>
+        <v>0.01</v>
       </c>
       <c r="Q14">
-        <v>0.01</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>423316</v>
       </c>
@@ -1433,37 +1284,34 @@
         <v>20186</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.04522936688794214</v>
       </c>
       <c r="L15">
-        <v>0.04522936688794214</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>19273</v>
       </c>
       <c r="O15">
-        <v>19273</v>
+        <v>913</v>
       </c>
       <c r="P15">
-        <v>913</v>
+        <v>0.01</v>
       </c>
       <c r="Q15">
-        <v>0.01</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>454774</v>
       </c>
@@ -1486,37 +1334,34 @@
         <v>28005</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0.0839850026780932</v>
       </c>
       <c r="L16">
-        <v>0.0839850026780932</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>25653</v>
       </c>
       <c r="O16">
-        <v>25653</v>
+        <v>2352</v>
       </c>
       <c r="P16">
-        <v>2352</v>
+        <v>0.01</v>
       </c>
       <c r="Q16">
-        <v>0.01</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>506000</v>
       </c>
@@ -1539,37 +1384,34 @@
         <v>23874</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.01625198961213035</v>
       </c>
       <c r="L17">
-        <v>0.01625198961213035</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>23486</v>
       </c>
       <c r="O17">
-        <v>23486</v>
+        <v>388</v>
       </c>
       <c r="P17">
-        <v>388</v>
+        <v>0.01</v>
       </c>
       <c r="Q17">
-        <v>0.01</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>544377</v>
       </c>
@@ -1592,10 +1434,10 @@
         <v>1510</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1607,22 +1449,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1510</v>
       </c>
       <c r="O18">
-        <v>1510</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q18">
-        <v>0.01</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>560256</v>
       </c>
@@ -1645,10 +1484,10 @@
         <v>4705</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1660,22 +1499,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>4705</v>
       </c>
       <c r="O19">
-        <v>4705</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q19">
-        <v>0.01</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>596656</v>
       </c>
@@ -1698,37 +1534,34 @@
         <v>11947</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0.0004185151083954131</v>
       </c>
       <c r="L20">
-        <v>0.0004185151083954131</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11942</v>
       </c>
       <c r="O20">
-        <v>11942</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="Q20">
-        <v>0.01</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>652636</v>
       </c>
@@ -1751,37 +1584,34 @@
         <v>7888</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0.006845841784989858</v>
       </c>
       <c r="L21">
-        <v>0.006845841784989858</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7834</v>
       </c>
       <c r="O21">
-        <v>7834</v>
+        <v>54</v>
       </c>
       <c r="P21">
-        <v>54</v>
+        <v>0.01</v>
       </c>
       <c r="Q21">
-        <v>0.01</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>664924</v>
       </c>
@@ -1804,37 +1634,34 @@
         <v>11076</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0.009570241964608163</v>
       </c>
       <c r="L22">
-        <v>0.009570241964608163</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10970</v>
       </c>
       <c r="O22">
-        <v>10970</v>
+        <v>106</v>
       </c>
       <c r="P22">
-        <v>106</v>
+        <v>0.01</v>
       </c>
       <c r="Q22">
-        <v>0.01</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>705714</v>
       </c>
@@ -1857,37 +1684,34 @@
         <v>13118</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0.007470651013874066</v>
       </c>
       <c r="L23">
-        <v>0.007470651013874066</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>13020</v>
       </c>
       <c r="O23">
-        <v>13020</v>
+        <v>98</v>
       </c>
       <c r="P23">
-        <v>98</v>
+        <v>0.01</v>
       </c>
       <c r="Q23">
-        <v>0.01</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>742820</v>
       </c>
@@ -1910,37 +1734,34 @@
         <v>12375</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0.004767676767676768</v>
       </c>
       <c r="L24">
-        <v>0.004767676767676768</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12316</v>
       </c>
       <c r="O24">
-        <v>12316</v>
+        <v>59</v>
       </c>
       <c r="P24">
-        <v>59</v>
+        <v>0.01</v>
       </c>
       <c r="Q24">
-        <v>0.01</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>772919</v>
       </c>
@@ -1963,10 +1784,10 @@
         <v>5607</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1978,22 +1799,19 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5607</v>
       </c>
       <c r="O25">
-        <v>5607</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q25">
-        <v>0.01</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>781470</v>
       </c>
@@ -2016,37 +1834,34 @@
         <v>11777</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0.005858877473040673</v>
       </c>
       <c r="L26">
-        <v>0.005858877473040673</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>11708</v>
       </c>
       <c r="O26">
-        <v>11708</v>
+        <v>69</v>
       </c>
       <c r="P26">
-        <v>69</v>
+        <v>0.01</v>
       </c>
       <c r="Q26">
-        <v>0.01</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>822979</v>
       </c>
@@ -2069,37 +1884,34 @@
         <v>10367</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0.01360084884730394</v>
       </c>
       <c r="L27">
-        <v>0.01360084884730394</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>10226</v>
       </c>
       <c r="O27">
-        <v>10226</v>
+        <v>141</v>
       </c>
       <c r="P27">
-        <v>141</v>
+        <v>0.01</v>
       </c>
       <c r="Q27">
-        <v>0.01</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>841016</v>
       </c>
@@ -2122,37 +1934,34 @@
         <v>6247</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0.007043380822794942</v>
       </c>
       <c r="L28">
-        <v>0.007043380822794942</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>6203</v>
       </c>
       <c r="O28">
-        <v>6203</v>
+        <v>44</v>
       </c>
       <c r="P28">
-        <v>44</v>
+        <v>0.01</v>
       </c>
       <c r="Q28">
-        <v>0.01</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>899889</v>
       </c>
@@ -2175,37 +1984,34 @@
         <v>5284</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0.003406510219530659</v>
       </c>
       <c r="L29">
-        <v>0.003406510219530659</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>5266</v>
       </c>
       <c r="O29">
-        <v>5266</v>
+        <v>18</v>
       </c>
       <c r="P29">
-        <v>18</v>
+        <v>0.01</v>
       </c>
       <c r="Q29">
-        <v>0.01</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>969127</v>
       </c>
@@ -2228,37 +2034,34 @@
         <v>4651</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0.0122554289400129</v>
       </c>
       <c r="L30">
-        <v>0.0122554289400129</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>4594</v>
       </c>
       <c r="O30">
-        <v>4594</v>
+        <v>57</v>
       </c>
       <c r="P30">
-        <v>57</v>
+        <v>0.01</v>
       </c>
       <c r="Q30">
-        <v>0.01</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>976420</v>
       </c>
@@ -2281,37 +2084,34 @@
         <v>11716</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0.007681802663024923</v>
       </c>
       <c r="L31">
-        <v>0.007681802663024923</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>11626</v>
       </c>
       <c r="O31">
-        <v>11626</v>
+        <v>90</v>
       </c>
       <c r="P31">
-        <v>90</v>
+        <v>0.01</v>
       </c>
       <c r="Q31">
-        <v>0.01</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>1008250</v>
       </c>
@@ -2334,37 +2134,34 @@
         <v>8384</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0.002624045801526718</v>
       </c>
       <c r="L32">
-        <v>0.002624045801526718</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>8362</v>
       </c>
       <c r="O32">
-        <v>8362</v>
+        <v>22</v>
       </c>
       <c r="P32">
-        <v>22</v>
+        <v>0.01</v>
       </c>
       <c r="Q32">
-        <v>0.01</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>1021444</v>
       </c>
@@ -2387,37 +2184,34 @@
         <v>11582</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0.006734588154032119</v>
       </c>
       <c r="L33">
-        <v>0.006734588154032119</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>11504</v>
       </c>
       <c r="O33">
-        <v>11504</v>
+        <v>78</v>
       </c>
       <c r="P33">
-        <v>78</v>
+        <v>0.01</v>
       </c>
       <c r="Q33">
-        <v>0.01</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>1039429</v>
       </c>
@@ -2440,37 +2234,34 @@
         <v>5919</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0.00963000506842372</v>
       </c>
       <c r="L34">
-        <v>0.00963000506842372</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>5862</v>
       </c>
       <c r="O34">
-        <v>5862</v>
+        <v>57</v>
       </c>
       <c r="P34">
-        <v>57</v>
+        <v>0.01</v>
       </c>
       <c r="Q34">
-        <v>0.01</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>1059198</v>
       </c>
@@ -2493,37 +2284,34 @@
         <v>9098</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0.09397669817542317</v>
       </c>
       <c r="L35">
-        <v>0.09397669817542317</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>8243</v>
       </c>
       <c r="O35">
-        <v>8243</v>
+        <v>855</v>
       </c>
       <c r="P35">
-        <v>855</v>
+        <v>0.01</v>
       </c>
       <c r="Q35">
-        <v>0.01</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>1086702</v>
       </c>
@@ -2546,37 +2334,34 @@
         <v>2289</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0.6330275229357798</v>
       </c>
       <c r="L36">
-        <v>0.6330275229357798</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="O36">
-        <v>840</v>
+        <v>1449</v>
       </c>
       <c r="P36">
-        <v>1449</v>
+        <v>0.01</v>
       </c>
       <c r="Q36">
-        <v>0.01</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>1121463</v>
       </c>
@@ -2599,37 +2384,34 @@
         <v>2073</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0.2301013024602026</v>
       </c>
       <c r="L37">
-        <v>0.2301013024602026</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1596</v>
       </c>
       <c r="O37">
-        <v>1596</v>
+        <v>477</v>
       </c>
       <c r="P37">
-        <v>477</v>
+        <v>0.01</v>
       </c>
       <c r="Q37">
-        <v>0.01</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>1156393</v>
       </c>
@@ -2652,10 +2434,10 @@
         <v>1823</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2667,22 +2449,19 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1823</v>
       </c>
       <c r="O38">
-        <v>1823</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q38">
-        <v>0.01</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>1171106</v>
       </c>
@@ -2705,10 +2484,10 @@
         <v>4098</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2720,22 +2499,19 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>4098</v>
       </c>
       <c r="O39">
-        <v>4098</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q39">
-        <v>0.01</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>1233428</v>
       </c>
@@ -2758,37 +2534,34 @@
         <v>3480</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0.5169540229885058</v>
       </c>
       <c r="L40">
-        <v>0.5169540229885058</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1681</v>
       </c>
       <c r="O40">
-        <v>1681</v>
+        <v>1799</v>
       </c>
       <c r="P40">
-        <v>1799</v>
+        <v>0.01</v>
       </c>
       <c r="Q40">
-        <v>0.01</v>
-      </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>1263573</v>
       </c>
@@ -2811,37 +2584,34 @@
         <v>2446</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0.7489779231398201</v>
       </c>
       <c r="L41">
-        <v>0.7489779231398201</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="O41">
-        <v>614</v>
+        <v>1832</v>
       </c>
       <c r="P41">
-        <v>1832</v>
+        <v>0.01</v>
       </c>
       <c r="Q41">
-        <v>0.01</v>
-      </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>1308188</v>
       </c>
@@ -2864,37 +2634,34 @@
         <v>1626</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0.8056580565805658</v>
       </c>
       <c r="L42">
-        <v>0.8056580565805658</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="O42">
-        <v>316</v>
+        <v>1310</v>
       </c>
       <c r="P42">
-        <v>1310</v>
+        <v>0.01</v>
       </c>
       <c r="Q42">
-        <v>0.01</v>
-      </c>
-      <c r="R42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>1338098</v>
       </c>
@@ -2917,37 +2684,34 @@
         <v>3040</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0.8253289473684211</v>
       </c>
       <c r="L43">
-        <v>0.8253289473684211</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="O43">
-        <v>531</v>
+        <v>2509</v>
       </c>
       <c r="P43">
-        <v>2509</v>
+        <v>0.01</v>
       </c>
       <c r="Q43">
-        <v>0.01</v>
-      </c>
-      <c r="R43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>1343068</v>
       </c>
@@ -2970,37 +2734,34 @@
         <v>3455</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0.7939218523878437</v>
       </c>
       <c r="L44">
-        <v>0.7939218523878437</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="O44">
-        <v>712</v>
+        <v>2743</v>
       </c>
       <c r="P44">
-        <v>2743</v>
+        <v>0.01</v>
       </c>
       <c r="Q44">
-        <v>0.01</v>
-      </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>1390499</v>
       </c>
@@ -3023,37 +2784,34 @@
         <v>3678</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0.7523110386079391</v>
       </c>
       <c r="L45">
-        <v>0.7523110386079391</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="O45">
-        <v>911</v>
+        <v>2767</v>
       </c>
       <c r="P45">
-        <v>2767</v>
+        <v>0.01</v>
       </c>
       <c r="Q45">
-        <v>0.01</v>
-      </c>
-      <c r="R45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>1418369</v>
       </c>
@@ -3076,37 +2834,34 @@
         <v>2846</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0.6788475052705552</v>
       </c>
       <c r="L46">
-        <v>0.6788475052705552</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="O46">
-        <v>914</v>
+        <v>1932</v>
       </c>
       <c r="P46">
-        <v>1932</v>
+        <v>0.01</v>
       </c>
       <c r="Q46">
-        <v>0.01</v>
-      </c>
-      <c r="R46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>1425881</v>
       </c>
@@ -3129,37 +2884,34 @@
         <v>1957</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J47" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0.7598364844149208</v>
       </c>
       <c r="L47">
-        <v>0.7598364844149208</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="O47">
-        <v>470</v>
+        <v>1487</v>
       </c>
       <c r="P47">
-        <v>1487</v>
+        <v>0.01</v>
       </c>
       <c r="Q47">
-        <v>0.01</v>
-      </c>
-      <c r="R47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>1431743</v>
       </c>
@@ -3182,37 +2934,34 @@
         <v>3904</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0.1677766393442623</v>
       </c>
       <c r="L48">
-        <v>0.1677766393442623</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>3249</v>
       </c>
       <c r="O48">
-        <v>3249</v>
+        <v>655</v>
       </c>
       <c r="P48">
-        <v>655</v>
+        <v>0.01</v>
       </c>
       <c r="Q48">
-        <v>0.01</v>
-      </c>
-      <c r="R48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>1448476</v>
       </c>
@@ -3235,10 +2984,10 @@
         <v>2693</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
-      </c>
-      <c r="J49" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3250,22 +2999,19 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>2693</v>
       </c>
       <c r="O49">
-        <v>2693</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q49">
-        <v>0.01</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>1499907</v>
       </c>
@@ -3288,10 +3034,10 @@
         <v>2088</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
-      </c>
-      <c r="J50" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3303,22 +3049,19 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>2088</v>
       </c>
       <c r="O50">
-        <v>2088</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q50">
-        <v>0.01</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>1507651</v>
       </c>
@@ -3341,37 +3084,34 @@
         <v>2095</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
-      </c>
-      <c r="J51" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0.3322195704057279</v>
       </c>
       <c r="L51">
-        <v>0.3322195704057279</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1399</v>
       </c>
       <c r="O51">
-        <v>1399</v>
+        <v>696</v>
       </c>
       <c r="P51">
-        <v>696</v>
+        <v>0.01</v>
       </c>
       <c r="Q51">
-        <v>0.01</v>
-      </c>
-      <c r="R51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>1519225</v>
       </c>
@@ -3394,37 +3134,34 @@
         <v>3020</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
-      </c>
-      <c r="J52" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0.8026490066225166</v>
       </c>
       <c r="L52">
-        <v>0.8026490066225166</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="O52">
-        <v>596</v>
+        <v>2424</v>
       </c>
       <c r="P52">
-        <v>2424</v>
+        <v>0.01</v>
       </c>
       <c r="Q52">
-        <v>0.01</v>
-      </c>
-      <c r="R52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>1558420</v>
       </c>
@@ -3447,37 +3184,34 @@
         <v>3682</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0.7289516567083107</v>
       </c>
       <c r="L53">
-        <v>0.7289516567083107</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>998</v>
       </c>
       <c r="O53">
-        <v>998</v>
+        <v>2684</v>
       </c>
       <c r="P53">
-        <v>2684</v>
+        <v>0.01</v>
       </c>
       <c r="Q53">
-        <v>0.01</v>
-      </c>
-      <c r="R53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>1570867</v>
       </c>
@@ -3500,37 +3234,34 @@
         <v>3686</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
-      </c>
-      <c r="J54" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0.7699403147042865</v>
       </c>
       <c r="L54">
-        <v>0.7699403147042865</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="O54">
-        <v>848</v>
+        <v>2838</v>
       </c>
       <c r="P54">
-        <v>2838</v>
+        <v>0.01</v>
       </c>
       <c r="Q54">
-        <v>0.01</v>
-      </c>
-      <c r="R54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>1616570</v>
       </c>
@@ -3553,37 +3284,34 @@
         <v>2267</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
-      </c>
-      <c r="J55" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0.7944419938244376</v>
       </c>
       <c r="L55">
-        <v>0.7944419938244376</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O55">
-        <v>466</v>
+        <v>1801</v>
       </c>
       <c r="P55">
-        <v>1801</v>
+        <v>0.01</v>
       </c>
       <c r="Q55">
-        <v>0.01</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>1646391</v>
       </c>
@@ -3606,37 +3334,34 @@
         <v>1520</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0.7144736842105263</v>
       </c>
       <c r="L56">
-        <v>0.7144736842105263</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="O56">
-        <v>434</v>
+        <v>1086</v>
       </c>
       <c r="P56">
-        <v>1086</v>
+        <v>0.01</v>
       </c>
       <c r="Q56">
-        <v>0.01</v>
-      </c>
-      <c r="R56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>1652665</v>
       </c>
@@ -3659,37 +3384,34 @@
         <v>4870</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0.7478439425051334</v>
       </c>
       <c r="L57">
-        <v>0.7478439425051334</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="O57">
-        <v>1228</v>
+        <v>3642</v>
       </c>
       <c r="P57">
-        <v>3642</v>
+        <v>0.01</v>
       </c>
       <c r="Q57">
-        <v>0.01</v>
-      </c>
-      <c r="R57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>1664490</v>
       </c>
@@ -3712,37 +3434,34 @@
         <v>13583</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0.6199661341382611</v>
       </c>
       <c r="L58">
-        <v>0.6199661341382611</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>5162</v>
       </c>
       <c r="O58">
-        <v>5162</v>
+        <v>8421</v>
       </c>
       <c r="P58">
-        <v>8421</v>
+        <v>0.01</v>
       </c>
       <c r="Q58">
-        <v>0.01</v>
-      </c>
-      <c r="R58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>1685217</v>
       </c>
@@ -3765,10 +3484,10 @@
         <v>11703</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
-      </c>
-      <c r="J59" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3780,22 +3499,19 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>11703</v>
       </c>
       <c r="O59">
-        <v>11703</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q59">
-        <v>0.01</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>1701047</v>
       </c>
@@ -3818,10 +3534,10 @@
         <v>1676</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3833,22 +3549,19 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1676</v>
       </c>
       <c r="O60">
-        <v>1676</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q60">
-        <v>0.01</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>1706487</v>
       </c>
@@ -3871,10 +3584,10 @@
         <v>3537</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3886,22 +3599,19 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>3537</v>
       </c>
       <c r="O61">
-        <v>3537</v>
+        <v>0</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q61">
-        <v>0.01</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>1722708</v>
       </c>
@@ -3924,37 +3634,34 @@
         <v>8493</v>
       </c>
       <c r="H62" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0.6307547391969858</v>
       </c>
       <c r="L62">
-        <v>0.6307547391969858</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>3136</v>
       </c>
       <c r="O62">
-        <v>3136</v>
+        <v>5357</v>
       </c>
       <c r="P62">
-        <v>5357</v>
+        <v>0.01</v>
       </c>
       <c r="Q62">
-        <v>0.01</v>
-      </c>
-      <c r="R62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>1773864</v>
       </c>
@@ -3977,37 +3684,34 @@
         <v>6365</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0.7005498821681069</v>
       </c>
       <c r="L63">
-        <v>0.7005498821681069</v>
+        <v>0</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>1906</v>
       </c>
       <c r="O63">
-        <v>1906</v>
+        <v>4459</v>
       </c>
       <c r="P63">
-        <v>4459</v>
+        <v>0.01</v>
       </c>
       <c r="Q63">
-        <v>0.01</v>
-      </c>
-      <c r="R63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>1790132</v>
       </c>
@@ -4030,37 +3734,34 @@
         <v>6122</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
-      </c>
-      <c r="J64" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0.7683763475988239</v>
       </c>
       <c r="L64">
-        <v>0.7683763475988239</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>1418</v>
       </c>
       <c r="O64">
-        <v>1418</v>
+        <v>4704</v>
       </c>
       <c r="P64">
-        <v>4704</v>
+        <v>0.01</v>
       </c>
       <c r="Q64">
-        <v>0.01</v>
-      </c>
-      <c r="R64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>1806229</v>
       </c>
@@ -4083,37 +3784,34 @@
         <v>7225</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0.7278892733564014</v>
       </c>
       <c r="L65">
-        <v>0.7278892733564014</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>1966</v>
       </c>
       <c r="O65">
-        <v>1966</v>
+        <v>5259</v>
       </c>
       <c r="P65">
-        <v>5259</v>
+        <v>0.01</v>
       </c>
       <c r="Q65">
-        <v>0.01</v>
-      </c>
-      <c r="R65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66">
         <v>1820219</v>
       </c>
@@ -4136,10 +3834,10 @@
         <v>3872</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4151,22 +3849,19 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>3872</v>
       </c>
       <c r="O66">
-        <v>3872</v>
+        <v>0</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q66">
-        <v>0.01</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>1886993</v>
       </c>
@@ -4189,10 +3884,10 @@
         <v>19891</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
-      </c>
-      <c r="J67" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4204,22 +3899,19 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>19891</v>
       </c>
       <c r="O67">
-        <v>19891</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q67">
-        <v>0.01</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>1922028</v>
       </c>
@@ -4242,37 +3934,34 @@
         <v>11590</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0.1497842968075928</v>
       </c>
       <c r="L68">
-        <v>0.1497842968075928</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>9854</v>
       </c>
       <c r="O68">
-        <v>9854</v>
+        <v>1736</v>
       </c>
       <c r="P68">
-        <v>1736</v>
+        <v>0.01</v>
       </c>
       <c r="Q68">
-        <v>0.01</v>
-      </c>
-      <c r="R68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>1971023</v>
       </c>
@@ -4295,10 +3984,10 @@
         <v>13473</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J69" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -4310,22 +3999,19 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>13473</v>
       </c>
       <c r="O69">
-        <v>13473</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q69">
-        <v>0.01</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>2000135</v>
       </c>
@@ -4348,10 +4034,10 @@
         <v>12799</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
-      </c>
-      <c r="J70" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -4363,22 +4049,19 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>12799</v>
       </c>
       <c r="O70">
-        <v>12799</v>
+        <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q70">
-        <v>0.01</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>2046957</v>
       </c>
@@ -4401,37 +4084,34 @@
         <v>7907</v>
       </c>
       <c r="H71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>0.43847223978753</v>
       </c>
       <c r="L71">
-        <v>0.43847223978753</v>
+        <v>0</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>4440</v>
       </c>
       <c r="O71">
-        <v>4440</v>
+        <v>3467</v>
       </c>
       <c r="P71">
-        <v>3467</v>
+        <v>0.01</v>
       </c>
       <c r="Q71">
-        <v>0.01</v>
-      </c>
-      <c r="R71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>2072676</v>
       </c>
@@ -4454,37 +4134,34 @@
         <v>13974</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
-      </c>
-      <c r="J72" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0.3589523400601116</v>
       </c>
       <c r="L72">
-        <v>0.3589523400601116</v>
+        <v>0</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>8958</v>
       </c>
       <c r="O72">
-        <v>8958</v>
+        <v>5016</v>
       </c>
       <c r="P72">
-        <v>5016</v>
+        <v>0.01</v>
       </c>
       <c r="Q72">
-        <v>0.01</v>
-      </c>
-      <c r="R72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>2112708</v>
       </c>
@@ -4507,10 +4184,10 @@
         <v>8372</v>
       </c>
       <c r="H73" t="s">
-        <v>23</v>
-      </c>
-      <c r="J73" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4522,22 +4199,19 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>8372</v>
       </c>
       <c r="O73">
-        <v>8372</v>
+        <v>0</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q73">
-        <v>0.01</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>2159109</v>
       </c>
@@ -4560,10 +4234,10 @@
         <v>10269</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
-      </c>
-      <c r="J74" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -4575,22 +4249,19 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>10269</v>
       </c>
       <c r="O74">
-        <v>10269</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q74">
-        <v>0.01</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>2172780</v>
       </c>
@@ -4613,10 +4284,10 @@
         <v>5910</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
-      </c>
-      <c r="J75" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -4628,22 +4299,19 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>5910</v>
       </c>
       <c r="O75">
-        <v>5910</v>
+        <v>0</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q75">
-        <v>0.01</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76">
         <v>2229131</v>
       </c>
@@ -4666,10 +4334,10 @@
         <v>7135</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
-      </c>
-      <c r="J76" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4681,22 +4349,19 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>7135</v>
       </c>
       <c r="O76">
-        <v>7135</v>
+        <v>0</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q76">
-        <v>0.01</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>2253797</v>
       </c>
@@ -4719,37 +4384,34 @@
         <v>12798</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J77" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0.4010001562744179</v>
       </c>
       <c r="L77">
-        <v>0.4010001562744179</v>
+        <v>0</v>
       </c>
       <c r="M77">
         <v>0</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>7666</v>
       </c>
       <c r="O77">
-        <v>7666</v>
+        <v>5132</v>
       </c>
       <c r="P77">
-        <v>5132</v>
+        <v>0.01</v>
       </c>
       <c r="Q77">
-        <v>0.01</v>
-      </c>
-      <c r="R77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78">
         <v>2309409</v>
       </c>
@@ -4772,37 +4434,34 @@
         <v>6467</v>
       </c>
       <c r="H78" t="s">
-        <v>24</v>
-      </c>
-      <c r="J78" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0.334467295500232</v>
       </c>
       <c r="L78">
-        <v>0.334467295500232</v>
+        <v>0</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>4304</v>
       </c>
       <c r="O78">
-        <v>4304</v>
+        <v>2163</v>
       </c>
       <c r="P78">
-        <v>2163</v>
+        <v>0.01</v>
       </c>
       <c r="Q78">
-        <v>0.01</v>
-      </c>
-      <c r="R78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79">
         <v>2323101</v>
       </c>
@@ -4825,37 +4484,34 @@
         <v>15894</v>
       </c>
       <c r="H79" t="s">
-        <v>24</v>
-      </c>
-      <c r="J79" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0.3523971309928275</v>
       </c>
       <c r="L79">
-        <v>0.3523971309928275</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>10293</v>
       </c>
       <c r="O79">
-        <v>10293</v>
+        <v>5601</v>
       </c>
       <c r="P79">
-        <v>5601</v>
+        <v>0.01</v>
       </c>
       <c r="Q79">
-        <v>0.01</v>
-      </c>
-      <c r="R79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80">
         <v>2411288</v>
       </c>
@@ -4878,10 +4534,10 @@
         <v>13013</v>
       </c>
       <c r="H80" t="s">
-        <v>24</v>
-      </c>
-      <c r="J80" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -4893,22 +4549,19 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>13013</v>
       </c>
       <c r="O80">
-        <v>13013</v>
+        <v>0</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q80">
-        <v>0.01</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>2459512</v>
       </c>
@@ -4931,37 +4584,34 @@
         <v>9608</v>
       </c>
       <c r="H81" t="s">
-        <v>24</v>
-      </c>
-      <c r="J81" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0.03070358034970858</v>
       </c>
       <c r="L81">
-        <v>0.03070358034970858</v>
+        <v>0</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>9313</v>
       </c>
       <c r="O81">
-        <v>9313</v>
+        <v>295</v>
       </c>
       <c r="P81">
-        <v>295</v>
+        <v>0.01</v>
       </c>
       <c r="Q81">
-        <v>0.01</v>
-      </c>
-      <c r="R81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82">
         <v>2475510</v>
       </c>
@@ -4984,37 +4634,34 @@
         <v>11435</v>
       </c>
       <c r="H82" t="s">
-        <v>24</v>
-      </c>
-      <c r="J82" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0.5290773939658941</v>
       </c>
       <c r="L82">
-        <v>0.5290773939658941</v>
+        <v>0</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>5385</v>
       </c>
       <c r="O82">
-        <v>5385</v>
+        <v>6050</v>
       </c>
       <c r="P82">
-        <v>6050</v>
+        <v>0.01</v>
       </c>
       <c r="Q82">
-        <v>0.01</v>
-      </c>
-      <c r="R82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83">
         <v>2496355</v>
       </c>
@@ -5037,37 +4684,34 @@
         <v>19308</v>
       </c>
       <c r="H83" t="s">
-        <v>24</v>
-      </c>
-      <c r="J83" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0.1126476072094469</v>
       </c>
       <c r="L83">
-        <v>0.1126476072094469</v>
+        <v>0</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>17133</v>
       </c>
       <c r="O83">
-        <v>17133</v>
+        <v>2175</v>
       </c>
       <c r="P83">
-        <v>2175</v>
+        <v>0.01</v>
       </c>
       <c r="Q83">
-        <v>0.01</v>
-      </c>
-      <c r="R83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84">
         <v>2528818</v>
       </c>
@@ -5090,37 +4734,34 @@
         <v>17977</v>
       </c>
       <c r="H84" t="s">
-        <v>24</v>
-      </c>
-      <c r="J84" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0.3368748957000612</v>
       </c>
       <c r="L84">
-        <v>0.3368748957000612</v>
+        <v>0</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>11921</v>
       </c>
       <c r="O84">
-        <v>11921</v>
+        <v>6056</v>
       </c>
       <c r="P84">
-        <v>6056</v>
+        <v>0.01</v>
       </c>
       <c r="Q84">
-        <v>0.01</v>
-      </c>
-      <c r="R84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>2560777</v>
       </c>
@@ -5143,37 +4784,34 @@
         <v>11619</v>
       </c>
       <c r="H85" t="s">
-        <v>24</v>
-      </c>
-      <c r="J85" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0.155435063258456</v>
       </c>
       <c r="L85">
-        <v>0.155435063258456</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>9813</v>
       </c>
       <c r="O85">
-        <v>9813</v>
+        <v>1806</v>
       </c>
       <c r="P85">
-        <v>1806</v>
+        <v>0.01</v>
       </c>
       <c r="Q85">
-        <v>0.01</v>
-      </c>
-      <c r="R85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86">
         <v>2593081</v>
       </c>
@@ -5196,37 +4834,34 @@
         <v>10034</v>
       </c>
       <c r="H86" t="s">
-        <v>24</v>
-      </c>
-      <c r="J86" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>0.1941399242575244</v>
       </c>
       <c r="L86">
-        <v>0.1941399242575244</v>
+        <v>0</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>8086</v>
       </c>
       <c r="O86">
-        <v>8086</v>
+        <v>1948</v>
       </c>
       <c r="P86">
-        <v>1948</v>
+        <v>0.01</v>
       </c>
       <c r="Q86">
-        <v>0.01</v>
-      </c>
-      <c r="R86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87">
         <v>2620181</v>
       </c>
@@ -5249,37 +4884,34 @@
         <v>19359</v>
       </c>
       <c r="H87" t="s">
-        <v>24</v>
-      </c>
-      <c r="J87" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>0.4744563252234103</v>
       </c>
       <c r="L87">
-        <v>0.4744563252234103</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>10174</v>
       </c>
       <c r="O87">
-        <v>10174</v>
+        <v>9185</v>
       </c>
       <c r="P87">
-        <v>9185</v>
+        <v>0.01</v>
       </c>
       <c r="Q87">
-        <v>0.01</v>
-      </c>
-      <c r="R87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88">
         <v>2711672</v>
       </c>
@@ -5302,10 +4934,10 @@
         <v>17057</v>
       </c>
       <c r="H88" t="s">
-        <v>24</v>
-      </c>
-      <c r="J88" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -5317,22 +4949,19 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>17057</v>
       </c>
       <c r="O88">
-        <v>17057</v>
+        <v>0</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q88">
-        <v>0.01</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89">
         <v>2791929</v>
       </c>
@@ -5355,37 +4984,34 @@
         <v>13998</v>
       </c>
       <c r="H89" t="s">
-        <v>24</v>
-      </c>
-      <c r="J89" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0.1497356765252179</v>
       </c>
       <c r="L89">
-        <v>0.1497356765252179</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>11902</v>
       </c>
       <c r="O89">
-        <v>11902</v>
+        <v>2096</v>
       </c>
       <c r="P89">
-        <v>2096</v>
+        <v>0.01</v>
       </c>
       <c r="Q89">
-        <v>0.01</v>
-      </c>
-      <c r="R89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90">
         <v>2811434</v>
       </c>
@@ -5408,37 +5034,34 @@
         <v>15030</v>
       </c>
       <c r="H90" t="s">
-        <v>24</v>
-      </c>
-      <c r="J90" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>0.3465735196274118</v>
       </c>
       <c r="L90">
-        <v>0.3465735196274118</v>
+        <v>0</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>9821</v>
       </c>
       <c r="O90">
-        <v>9821</v>
+        <v>5209</v>
       </c>
       <c r="P90">
-        <v>5209</v>
+        <v>0.01</v>
       </c>
       <c r="Q90">
-        <v>0.01</v>
-      </c>
-      <c r="R90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91">
         <v>2843994</v>
       </c>
@@ -5461,37 +5084,34 @@
         <v>19560</v>
       </c>
       <c r="H91" t="s">
-        <v>24</v>
-      </c>
-      <c r="J91" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0.1792944785276074</v>
       </c>
       <c r="L91">
-        <v>0.1792944785276074</v>
+        <v>0</v>
       </c>
       <c r="M91">
         <v>0</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>16053</v>
       </c>
       <c r="O91">
-        <v>16053</v>
+        <v>3507</v>
       </c>
       <c r="P91">
-        <v>3507</v>
+        <v>0.01</v>
       </c>
       <c r="Q91">
-        <v>0.01</v>
-      </c>
-      <c r="R91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92">
         <v>2888575</v>
       </c>
@@ -5514,10 +5134,10 @@
         <v>17258</v>
       </c>
       <c r="H92" t="s">
-        <v>24</v>
-      </c>
-      <c r="J92" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -5529,22 +5149,19 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>17258</v>
       </c>
       <c r="O92">
-        <v>17258</v>
+        <v>0</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q92">
-        <v>0.01</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93">
         <v>2932391</v>
       </c>
@@ -5567,10 +5184,10 @@
         <v>10429</v>
       </c>
       <c r="H93" t="s">
-        <v>24</v>
-      </c>
-      <c r="J93" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -5582,22 +5199,19 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>10429</v>
       </c>
       <c r="O93">
-        <v>10429</v>
+        <v>0</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q93">
-        <v>0.01</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94">
         <v>2945466</v>
       </c>
@@ -5620,10 +5234,10 @@
         <v>9922</v>
       </c>
       <c r="H94" t="s">
-        <v>24</v>
-      </c>
-      <c r="J94" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -5635,22 +5249,19 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>9922</v>
       </c>
       <c r="O94">
-        <v>9922</v>
+        <v>0</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q94">
-        <v>0.01</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95">
         <v>2967253</v>
       </c>
@@ -5673,37 +5284,34 @@
         <v>8446</v>
       </c>
       <c r="H95" t="s">
-        <v>24</v>
-      </c>
-      <c r="J95" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>0.4085957849869761</v>
       </c>
       <c r="L95">
-        <v>0.4085957849869761</v>
+        <v>0</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>4995</v>
       </c>
       <c r="O95">
-        <v>4995</v>
+        <v>3451</v>
       </c>
       <c r="P95">
-        <v>3451</v>
+        <v>0.01</v>
       </c>
       <c r="Q95">
-        <v>0.01</v>
-      </c>
-      <c r="R95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96">
         <v>3037447</v>
       </c>
@@ -5726,10 +5334,10 @@
         <v>18897</v>
       </c>
       <c r="H96" t="s">
-        <v>24</v>
-      </c>
-      <c r="J96" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -5741,22 +5349,19 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>18897</v>
       </c>
       <c r="O96">
-        <v>18897</v>
+        <v>0</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q96">
-        <v>0.01</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97">
         <v>3064638</v>
       </c>
@@ -5779,10 +5384,10 @@
         <v>10342</v>
       </c>
       <c r="H97" t="s">
-        <v>24</v>
-      </c>
-      <c r="J97" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -5794,22 +5399,19 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>10342</v>
       </c>
       <c r="O97">
-        <v>10342</v>
+        <v>0</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q97">
-        <v>0.01</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>3091002</v>
       </c>
@@ -5832,10 +5434,10 @@
         <v>19051</v>
       </c>
       <c r="H98" t="s">
-        <v>24</v>
-      </c>
-      <c r="J98" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -5847,22 +5449,19 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>19051</v>
       </c>
       <c r="O98">
-        <v>19051</v>
+        <v>0</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q98">
-        <v>0.01</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99">
         <v>3128490</v>
       </c>
@@ -5885,37 +5484,34 @@
         <v>15102</v>
       </c>
       <c r="H99" t="s">
-        <v>24</v>
-      </c>
-      <c r="J99" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0.07449344457687723</v>
       </c>
       <c r="L99">
-        <v>0.07449344457687723</v>
+        <v>0</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>13977</v>
       </c>
       <c r="O99">
-        <v>13977</v>
+        <v>1125</v>
       </c>
       <c r="P99">
-        <v>1125</v>
+        <v>0.01</v>
       </c>
       <c r="Q99">
-        <v>0.01</v>
-      </c>
-      <c r="R99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>3152819</v>
       </c>
@@ -5938,37 +5534,34 @@
         <v>5309</v>
       </c>
       <c r="H100" t="s">
-        <v>24</v>
-      </c>
-      <c r="J100" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>0.3887737803729516</v>
       </c>
       <c r="L100">
-        <v>0.3887737803729516</v>
+        <v>0</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>3245</v>
       </c>
       <c r="O100">
-        <v>3245</v>
+        <v>2064</v>
       </c>
       <c r="P100">
-        <v>2064</v>
+        <v>0.01</v>
       </c>
       <c r="Q100">
-        <v>0.01</v>
-      </c>
-      <c r="R100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101">
         <v>3179521</v>
       </c>
@@ -5991,33 +5584,30 @@
         <v>10158</v>
       </c>
       <c r="H101" t="s">
-        <v>24</v>
-      </c>
-      <c r="J101" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0.560051191179366</v>
       </c>
       <c r="L101">
-        <v>0.560051191179366</v>
+        <v>0</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>4469</v>
       </c>
       <c r="O101">
-        <v>4469</v>
+        <v>5689</v>
       </c>
       <c r="P101">
-        <v>5689</v>
+        <v>0.01</v>
       </c>
       <c r="Q101">
-        <v>0.01</v>
-      </c>
-      <c r="R101">
         <v>1</v>
       </c>
     </row>
@@ -6028,13 +5618,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6086,11 +5676,8 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>24102</v>
       </c>
@@ -6098,7 +5685,7 @@
         <v>35538</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1.18559</v>
@@ -6113,37 +5700,34 @@
         <v>8145</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.08336402701043585</v>
       </c>
       <c r="L2">
-        <v>0.08336402701043585</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7466</v>
       </c>
       <c r="O2">
-        <v>7466</v>
+        <v>679</v>
       </c>
       <c r="P2">
-        <v>679</v>
+        <v>0.01</v>
       </c>
       <c r="Q2">
-        <v>0.01</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>79207</v>
       </c>
@@ -6166,37 +5750,34 @@
         <v>17324</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.07284691757099977</v>
       </c>
       <c r="L3">
-        <v>0.07284691757099977</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>16062</v>
       </c>
       <c r="O3">
-        <v>16062</v>
+        <v>1262</v>
       </c>
       <c r="P3">
-        <v>1262</v>
+        <v>0.01</v>
       </c>
       <c r="Q3">
-        <v>0.01</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>100321</v>
       </c>
@@ -6219,37 +5800,34 @@
         <v>15881</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.04495938542912915</v>
       </c>
       <c r="L4">
-        <v>0.04495938542912915</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>15167</v>
       </c>
       <c r="O4">
-        <v>15167</v>
+        <v>714</v>
       </c>
       <c r="P4">
-        <v>714</v>
+        <v>0.01</v>
       </c>
       <c r="Q4">
-        <v>0.01</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>141997</v>
       </c>
@@ -6272,37 +5850,34 @@
         <v>12026</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.0793281224014635</v>
       </c>
       <c r="L5">
-        <v>0.0793281224014635</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>11072</v>
       </c>
       <c r="O5">
-        <v>11072</v>
+        <v>954</v>
       </c>
       <c r="P5">
-        <v>954</v>
+        <v>0.01</v>
       </c>
       <c r="Q5">
-        <v>0.01</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>156967</v>
       </c>
@@ -6325,37 +5900,34 @@
         <v>7540</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.08289124668435013</v>
       </c>
       <c r="L6">
-        <v>0.08289124668435013</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6915</v>
       </c>
       <c r="O6">
-        <v>6915</v>
+        <v>625</v>
       </c>
       <c r="P6">
-        <v>625</v>
+        <v>0.01</v>
       </c>
       <c r="Q6">
-        <v>0.01</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>168352</v>
       </c>
@@ -6378,37 +5950,34 @@
         <v>26163</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.05893819516110538</v>
       </c>
       <c r="L7">
-        <v>0.05893819516110538</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>24621</v>
       </c>
       <c r="O7">
-        <v>24621</v>
+        <v>1542</v>
       </c>
       <c r="P7">
-        <v>1542</v>
+        <v>0.01</v>
       </c>
       <c r="Q7">
-        <v>0.01</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>229247</v>
       </c>
@@ -6431,37 +6000,34 @@
         <v>2278</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.02019315188762072</v>
       </c>
       <c r="L8">
-        <v>0.02019315188762072</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2232</v>
       </c>
       <c r="O8">
-        <v>2232</v>
+        <v>46</v>
       </c>
       <c r="P8">
-        <v>46</v>
+        <v>0.01</v>
       </c>
       <c r="Q8">
-        <v>0.01</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>239054</v>
       </c>
@@ -6484,37 +6050,34 @@
         <v>4803</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.009577347491151364</v>
       </c>
       <c r="L9">
-        <v>0.009577347491151364</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>4757</v>
       </c>
       <c r="O9">
-        <v>4757</v>
+        <v>46</v>
       </c>
       <c r="P9">
-        <v>46</v>
+        <v>0.01</v>
       </c>
       <c r="Q9">
-        <v>0.01</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>275848</v>
       </c>
@@ -6537,37 +6100,34 @@
         <v>7719</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.01489830288897526</v>
       </c>
       <c r="L10">
-        <v>0.01489830288897526</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7604</v>
       </c>
       <c r="O10">
-        <v>7604</v>
+        <v>115</v>
       </c>
       <c r="P10">
-        <v>115</v>
+        <v>0.01</v>
       </c>
       <c r="Q10">
-        <v>0.01</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>285299</v>
       </c>
@@ -6590,37 +6150,34 @@
         <v>24635</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.03965902171706921</v>
       </c>
       <c r="L11">
-        <v>0.03965902171706921</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>23658</v>
       </c>
       <c r="O11">
-        <v>23658</v>
+        <v>977</v>
       </c>
       <c r="P11">
-        <v>977</v>
+        <v>0.01</v>
       </c>
       <c r="Q11">
-        <v>0.01</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>331597</v>
       </c>
@@ -6643,37 +6200,34 @@
         <v>19165</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.06877119749543438</v>
       </c>
       <c r="L12">
-        <v>0.06877119749543438</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>17847</v>
       </c>
       <c r="O12">
-        <v>17847</v>
+        <v>1318</v>
       </c>
       <c r="P12">
-        <v>1318</v>
+        <v>0.01</v>
       </c>
       <c r="Q12">
-        <v>0.01</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>359552</v>
       </c>
@@ -6696,37 +6250,34 @@
         <v>17269</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.02426313046499508</v>
       </c>
       <c r="L13">
-        <v>0.02426313046499508</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>16850</v>
       </c>
       <c r="O13">
-        <v>16850</v>
+        <v>419</v>
       </c>
       <c r="P13">
-        <v>419</v>
+        <v>0.01</v>
       </c>
       <c r="Q13">
-        <v>0.01</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>388550</v>
       </c>
@@ -6749,37 +6300,34 @@
         <v>23752</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.02576625126305153</v>
       </c>
       <c r="L14">
-        <v>0.02576625126305153</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>23140</v>
       </c>
       <c r="O14">
-        <v>23140</v>
+        <v>612</v>
       </c>
       <c r="P14">
-        <v>612</v>
+        <v>0.01</v>
       </c>
       <c r="Q14">
-        <v>0.01</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>423316</v>
       </c>
@@ -6802,37 +6350,34 @@
         <v>20186</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.04522936688794214</v>
       </c>
       <c r="L15">
-        <v>0.04522936688794214</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>19273</v>
       </c>
       <c r="O15">
-        <v>19273</v>
+        <v>913</v>
       </c>
       <c r="P15">
-        <v>913</v>
+        <v>0.01</v>
       </c>
       <c r="Q15">
-        <v>0.01</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>454774</v>
       </c>
@@ -6855,37 +6400,34 @@
         <v>28005</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0.0839850026780932</v>
       </c>
       <c r="L16">
-        <v>0.0839850026780932</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>25653</v>
       </c>
       <c r="O16">
-        <v>25653</v>
+        <v>2352</v>
       </c>
       <c r="P16">
-        <v>2352</v>
+        <v>0.01</v>
       </c>
       <c r="Q16">
-        <v>0.01</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>506000</v>
       </c>
@@ -6908,37 +6450,34 @@
         <v>23874</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.01625198961213035</v>
       </c>
       <c r="L17">
-        <v>0.01625198961213035</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>23486</v>
       </c>
       <c r="O17">
-        <v>23486</v>
+        <v>388</v>
       </c>
       <c r="P17">
-        <v>388</v>
+        <v>0.01</v>
       </c>
       <c r="Q17">
-        <v>0.01</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>596656</v>
       </c>
@@ -6961,37 +6500,34 @@
         <v>11947</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0.0004185151083954131</v>
       </c>
       <c r="L18">
-        <v>0.0004185151083954131</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11942</v>
       </c>
       <c r="O18">
-        <v>11942</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="Q18">
-        <v>0.01</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>652636</v>
       </c>
@@ -7014,37 +6550,34 @@
         <v>7888</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0.006845841784989858</v>
       </c>
       <c r="L19">
-        <v>0.006845841784989858</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7834</v>
       </c>
       <c r="O19">
-        <v>7834</v>
+        <v>54</v>
       </c>
       <c r="P19">
-        <v>54</v>
+        <v>0.01</v>
       </c>
       <c r="Q19">
-        <v>0.01</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>664924</v>
       </c>
@@ -7067,37 +6600,34 @@
         <v>11076</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0.009570241964608163</v>
       </c>
       <c r="L20">
-        <v>0.009570241964608163</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10970</v>
       </c>
       <c r="O20">
-        <v>10970</v>
+        <v>106</v>
       </c>
       <c r="P20">
-        <v>106</v>
+        <v>0.01</v>
       </c>
       <c r="Q20">
-        <v>0.01</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>705714</v>
       </c>
@@ -7120,37 +6650,34 @@
         <v>13118</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0.007470651013874066</v>
       </c>
       <c r="L21">
-        <v>0.007470651013874066</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>13020</v>
       </c>
       <c r="O21">
-        <v>13020</v>
+        <v>98</v>
       </c>
       <c r="P21">
-        <v>98</v>
+        <v>0.01</v>
       </c>
       <c r="Q21">
-        <v>0.01</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>742820</v>
       </c>
@@ -7173,37 +6700,34 @@
         <v>12375</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0.004767676767676768</v>
       </c>
       <c r="L22">
-        <v>0.004767676767676768</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12316</v>
       </c>
       <c r="O22">
-        <v>12316</v>
+        <v>59</v>
       </c>
       <c r="P22">
-        <v>59</v>
+        <v>0.01</v>
       </c>
       <c r="Q22">
-        <v>0.01</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>781470</v>
       </c>
@@ -7226,37 +6750,34 @@
         <v>11777</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0.005858877473040673</v>
       </c>
       <c r="L23">
-        <v>0.005858877473040673</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11708</v>
       </c>
       <c r="O23">
-        <v>11708</v>
+        <v>69</v>
       </c>
       <c r="P23">
-        <v>69</v>
+        <v>0.01</v>
       </c>
       <c r="Q23">
-        <v>0.01</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>822979</v>
       </c>
@@ -7279,37 +6800,34 @@
         <v>10367</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0.01360084884730394</v>
       </c>
       <c r="L24">
-        <v>0.01360084884730394</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10226</v>
       </c>
       <c r="O24">
-        <v>10226</v>
+        <v>141</v>
       </c>
       <c r="P24">
-        <v>141</v>
+        <v>0.01</v>
       </c>
       <c r="Q24">
-        <v>0.01</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>841016</v>
       </c>
@@ -7332,37 +6850,34 @@
         <v>6247</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0.007043380822794942</v>
       </c>
       <c r="L25">
-        <v>0.007043380822794942</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6203</v>
       </c>
       <c r="O25">
-        <v>6203</v>
+        <v>44</v>
       </c>
       <c r="P25">
-        <v>44</v>
+        <v>0.01</v>
       </c>
       <c r="Q25">
-        <v>0.01</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>899889</v>
       </c>
@@ -7385,37 +6900,34 @@
         <v>5284</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0.003406510219530659</v>
       </c>
       <c r="L26">
-        <v>0.003406510219530659</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>5266</v>
       </c>
       <c r="O26">
-        <v>5266</v>
+        <v>18</v>
       </c>
       <c r="P26">
-        <v>18</v>
+        <v>0.01</v>
       </c>
       <c r="Q26">
-        <v>0.01</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>969127</v>
       </c>
@@ -7438,37 +6950,34 @@
         <v>4651</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0.0122554289400129</v>
       </c>
       <c r="L27">
-        <v>0.0122554289400129</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>4594</v>
       </c>
       <c r="O27">
-        <v>4594</v>
+        <v>57</v>
       </c>
       <c r="P27">
-        <v>57</v>
+        <v>0.01</v>
       </c>
       <c r="Q27">
-        <v>0.01</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>976420</v>
       </c>
@@ -7491,37 +7000,34 @@
         <v>11716</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0.007681802663024923</v>
       </c>
       <c r="L28">
-        <v>0.007681802663024923</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>11626</v>
       </c>
       <c r="O28">
-        <v>11626</v>
+        <v>90</v>
       </c>
       <c r="P28">
-        <v>90</v>
+        <v>0.01</v>
       </c>
       <c r="Q28">
-        <v>0.01</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>1008250</v>
       </c>
@@ -7544,37 +7050,34 @@
         <v>8384</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0.002624045801526718</v>
       </c>
       <c r="L29">
-        <v>0.002624045801526718</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>8362</v>
       </c>
       <c r="O29">
-        <v>8362</v>
+        <v>22</v>
       </c>
       <c r="P29">
-        <v>22</v>
+        <v>0.01</v>
       </c>
       <c r="Q29">
-        <v>0.01</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>1021444</v>
       </c>
@@ -7597,37 +7100,34 @@
         <v>11582</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0.006734588154032119</v>
       </c>
       <c r="L30">
-        <v>0.006734588154032119</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>11504</v>
       </c>
       <c r="O30">
-        <v>11504</v>
+        <v>78</v>
       </c>
       <c r="P30">
-        <v>78</v>
+        <v>0.01</v>
       </c>
       <c r="Q30">
-        <v>0.01</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>1039429</v>
       </c>
@@ -7650,37 +7150,34 @@
         <v>5919</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0.00963000506842372</v>
       </c>
       <c r="L31">
-        <v>0.00963000506842372</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>5862</v>
       </c>
       <c r="O31">
-        <v>5862</v>
+        <v>57</v>
       </c>
       <c r="P31">
-        <v>57</v>
+        <v>0.01</v>
       </c>
       <c r="Q31">
-        <v>0.01</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>1059198</v>
       </c>
@@ -7703,37 +7200,34 @@
         <v>9098</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0.09397669817542317</v>
       </c>
       <c r="L32">
-        <v>0.09397669817542317</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>8243</v>
       </c>
       <c r="O32">
-        <v>8243</v>
+        <v>855</v>
       </c>
       <c r="P32">
-        <v>855</v>
+        <v>0.01</v>
       </c>
       <c r="Q32">
-        <v>0.01</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>1086702</v>
       </c>
@@ -7756,37 +7250,34 @@
         <v>2289</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0.6330275229357798</v>
       </c>
       <c r="L33">
-        <v>0.6330275229357798</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="O33">
-        <v>840</v>
+        <v>1449</v>
       </c>
       <c r="P33">
-        <v>1449</v>
+        <v>0.01</v>
       </c>
       <c r="Q33">
-        <v>0.01</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>1121463</v>
       </c>
@@ -7809,37 +7300,34 @@
         <v>2073</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0.2301013024602026</v>
       </c>
       <c r="L34">
-        <v>0.2301013024602026</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1596</v>
       </c>
       <c r="O34">
-        <v>1596</v>
+        <v>477</v>
       </c>
       <c r="P34">
-        <v>477</v>
+        <v>0.01</v>
       </c>
       <c r="Q34">
-        <v>0.01</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>1233428</v>
       </c>
@@ -7862,37 +7350,34 @@
         <v>3480</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0.5169540229885058</v>
       </c>
       <c r="L35">
-        <v>0.5169540229885058</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1681</v>
       </c>
       <c r="O35">
-        <v>1681</v>
+        <v>1799</v>
       </c>
       <c r="P35">
-        <v>1799</v>
+        <v>0.01</v>
       </c>
       <c r="Q35">
-        <v>0.01</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>1263573</v>
       </c>
@@ -7915,37 +7400,34 @@
         <v>2446</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0.7489779231398201</v>
       </c>
       <c r="L36">
-        <v>0.7489779231398201</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="O36">
-        <v>614</v>
+        <v>1832</v>
       </c>
       <c r="P36">
-        <v>1832</v>
+        <v>0.01</v>
       </c>
       <c r="Q36">
-        <v>0.01</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>1308188</v>
       </c>
@@ -7968,37 +7450,34 @@
         <v>1626</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0.8056580565805658</v>
       </c>
       <c r="L37">
-        <v>0.8056580565805658</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="O37">
-        <v>316</v>
+        <v>1310</v>
       </c>
       <c r="P37">
-        <v>1310</v>
+        <v>0.01</v>
       </c>
       <c r="Q37">
-        <v>0.01</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>1338098</v>
       </c>
@@ -8021,37 +7500,34 @@
         <v>3040</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0.8253289473684211</v>
       </c>
       <c r="L38">
-        <v>0.8253289473684211</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="O38">
-        <v>531</v>
+        <v>2509</v>
       </c>
       <c r="P38">
-        <v>2509</v>
+        <v>0.01</v>
       </c>
       <c r="Q38">
-        <v>0.01</v>
-      </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>1343068</v>
       </c>
@@ -8074,37 +7550,34 @@
         <v>3455</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0.7939218523878437</v>
       </c>
       <c r="L39">
-        <v>0.7939218523878437</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="O39">
-        <v>712</v>
+        <v>2743</v>
       </c>
       <c r="P39">
-        <v>2743</v>
+        <v>0.01</v>
       </c>
       <c r="Q39">
-        <v>0.01</v>
-      </c>
-      <c r="R39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>1390499</v>
       </c>
@@ -8127,37 +7600,34 @@
         <v>3678</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0.7523110386079391</v>
       </c>
       <c r="L40">
-        <v>0.7523110386079391</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="O40">
-        <v>911</v>
+        <v>2767</v>
       </c>
       <c r="P40">
-        <v>2767</v>
+        <v>0.01</v>
       </c>
       <c r="Q40">
-        <v>0.01</v>
-      </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>1418369</v>
       </c>
@@ -8180,37 +7650,34 @@
         <v>2846</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0.6788475052705552</v>
       </c>
       <c r="L41">
-        <v>0.6788475052705552</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="O41">
-        <v>914</v>
+        <v>1932</v>
       </c>
       <c r="P41">
-        <v>1932</v>
+        <v>0.01</v>
       </c>
       <c r="Q41">
-        <v>0.01</v>
-      </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>1425881</v>
       </c>
@@ -8233,37 +7700,34 @@
         <v>1957</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0.7598364844149208</v>
       </c>
       <c r="L42">
-        <v>0.7598364844149208</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="O42">
-        <v>470</v>
+        <v>1487</v>
       </c>
       <c r="P42">
-        <v>1487</v>
+        <v>0.01</v>
       </c>
       <c r="Q42">
-        <v>0.01</v>
-      </c>
-      <c r="R42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>1431743</v>
       </c>
@@ -8286,37 +7750,34 @@
         <v>3904</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0.1677766393442623</v>
       </c>
       <c r="L43">
-        <v>0.1677766393442623</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>3249</v>
       </c>
       <c r="O43">
-        <v>3249</v>
+        <v>655</v>
       </c>
       <c r="P43">
-        <v>655</v>
+        <v>0.01</v>
       </c>
       <c r="Q43">
-        <v>0.01</v>
-      </c>
-      <c r="R43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>1507651</v>
       </c>
@@ -8339,37 +7800,34 @@
         <v>2095</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0.3322195704057279</v>
       </c>
       <c r="L44">
-        <v>0.3322195704057279</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1399</v>
       </c>
       <c r="O44">
-        <v>1399</v>
+        <v>696</v>
       </c>
       <c r="P44">
-        <v>696</v>
+        <v>0.01</v>
       </c>
       <c r="Q44">
-        <v>0.01</v>
-      </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>1519225</v>
       </c>
@@ -8392,37 +7850,34 @@
         <v>3020</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0.8026490066225166</v>
       </c>
       <c r="L45">
-        <v>0.8026490066225166</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="O45">
-        <v>596</v>
+        <v>2424</v>
       </c>
       <c r="P45">
-        <v>2424</v>
+        <v>0.01</v>
       </c>
       <c r="Q45">
-        <v>0.01</v>
-      </c>
-      <c r="R45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>1558420</v>
       </c>
@@ -8445,37 +7900,34 @@
         <v>3682</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0.7289516567083107</v>
       </c>
       <c r="L46">
-        <v>0.7289516567083107</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>998</v>
       </c>
       <c r="O46">
-        <v>998</v>
+        <v>2684</v>
       </c>
       <c r="P46">
-        <v>2684</v>
+        <v>0.01</v>
       </c>
       <c r="Q46">
-        <v>0.01</v>
-      </c>
-      <c r="R46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>1570867</v>
       </c>
@@ -8498,37 +7950,34 @@
         <v>3686</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J47" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0.7699403147042865</v>
       </c>
       <c r="L47">
-        <v>0.7699403147042865</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="O47">
-        <v>848</v>
+        <v>2838</v>
       </c>
       <c r="P47">
-        <v>2838</v>
+        <v>0.01</v>
       </c>
       <c r="Q47">
-        <v>0.01</v>
-      </c>
-      <c r="R47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>1616570</v>
       </c>
@@ -8551,37 +8000,34 @@
         <v>2267</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0.7944419938244376</v>
       </c>
       <c r="L48">
-        <v>0.7944419938244376</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="O48">
-        <v>466</v>
+        <v>1801</v>
       </c>
       <c r="P48">
-        <v>1801</v>
+        <v>0.01</v>
       </c>
       <c r="Q48">
-        <v>0.01</v>
-      </c>
-      <c r="R48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>1646391</v>
       </c>
@@ -8604,37 +8050,34 @@
         <v>1520</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0.7144736842105263</v>
       </c>
       <c r="L49">
-        <v>0.7144736842105263</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="O49">
-        <v>434</v>
+        <v>1086</v>
       </c>
       <c r="P49">
-        <v>1086</v>
+        <v>0.01</v>
       </c>
       <c r="Q49">
-        <v>0.01</v>
-      </c>
-      <c r="R49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>1652665</v>
       </c>
@@ -8657,37 +8100,34 @@
         <v>4870</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0.7478439425051334</v>
       </c>
       <c r="L50">
-        <v>0.7478439425051334</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="O50">
-        <v>1228</v>
+        <v>3642</v>
       </c>
       <c r="P50">
-        <v>3642</v>
+        <v>0.01</v>
       </c>
       <c r="Q50">
-        <v>0.01</v>
-      </c>
-      <c r="R50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>1664490</v>
       </c>
@@ -8710,37 +8150,34 @@
         <v>13583</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0.6199661341382611</v>
       </c>
       <c r="L51">
-        <v>0.6199661341382611</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>5162</v>
       </c>
       <c r="O51">
-        <v>5162</v>
+        <v>8421</v>
       </c>
       <c r="P51">
-        <v>8421</v>
+        <v>0.01</v>
       </c>
       <c r="Q51">
-        <v>0.01</v>
-      </c>
-      <c r="R51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>1722708</v>
       </c>
@@ -8763,37 +8200,34 @@
         <v>8493</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0.6307547391969858</v>
       </c>
       <c r="L52">
-        <v>0.6307547391969858</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>3136</v>
       </c>
       <c r="O52">
-        <v>3136</v>
+        <v>5357</v>
       </c>
       <c r="P52">
-        <v>5357</v>
+        <v>0.01</v>
       </c>
       <c r="Q52">
-        <v>0.01</v>
-      </c>
-      <c r="R52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>1773864</v>
       </c>
@@ -8816,37 +8250,34 @@
         <v>6365</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0.7005498821681069</v>
       </c>
       <c r="L53">
-        <v>0.7005498821681069</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1906</v>
       </c>
       <c r="O53">
-        <v>1906</v>
+        <v>4459</v>
       </c>
       <c r="P53">
-        <v>4459</v>
+        <v>0.01</v>
       </c>
       <c r="Q53">
-        <v>0.01</v>
-      </c>
-      <c r="R53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>1790132</v>
       </c>
@@ -8869,37 +8300,34 @@
         <v>6122</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0.7683763475988239</v>
       </c>
       <c r="L54">
-        <v>0.7683763475988239</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>1418</v>
       </c>
       <c r="O54">
-        <v>1418</v>
+        <v>4704</v>
       </c>
       <c r="P54">
-        <v>4704</v>
+        <v>0.01</v>
       </c>
       <c r="Q54">
-        <v>0.01</v>
-      </c>
-      <c r="R54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>1806229</v>
       </c>
@@ -8922,37 +8350,34 @@
         <v>7225</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0.7278892733564014</v>
       </c>
       <c r="L55">
-        <v>0.7278892733564014</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1966</v>
       </c>
       <c r="O55">
-        <v>1966</v>
+        <v>5259</v>
       </c>
       <c r="P55">
-        <v>5259</v>
+        <v>0.01</v>
       </c>
       <c r="Q55">
-        <v>0.01</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>1922028</v>
       </c>
@@ -8975,37 +8400,34 @@
         <v>11590</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0.1497842968075928</v>
       </c>
       <c r="L56">
-        <v>0.1497842968075928</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>9854</v>
       </c>
       <c r="O56">
-        <v>9854</v>
+        <v>1736</v>
       </c>
       <c r="P56">
-        <v>1736</v>
+        <v>0.01</v>
       </c>
       <c r="Q56">
-        <v>0.01</v>
-      </c>
-      <c r="R56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>2046957</v>
       </c>
@@ -9028,37 +8450,34 @@
         <v>7907</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0.43847223978753</v>
       </c>
       <c r="L57">
-        <v>0.43847223978753</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>4440</v>
       </c>
       <c r="O57">
-        <v>4440</v>
+        <v>3467</v>
       </c>
       <c r="P57">
-        <v>3467</v>
+        <v>0.01</v>
       </c>
       <c r="Q57">
-        <v>0.01</v>
-      </c>
-      <c r="R57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>2072676</v>
       </c>
@@ -9081,37 +8500,34 @@
         <v>13974</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0.3589523400601116</v>
       </c>
       <c r="L58">
-        <v>0.3589523400601116</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>8958</v>
       </c>
       <c r="O58">
-        <v>8958</v>
+        <v>5016</v>
       </c>
       <c r="P58">
-        <v>5016</v>
+        <v>0.01</v>
       </c>
       <c r="Q58">
-        <v>0.01</v>
-      </c>
-      <c r="R58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>2253797</v>
       </c>
@@ -9134,37 +8550,34 @@
         <v>12798</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
-      </c>
-      <c r="J59" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0.4010001562744179</v>
       </c>
       <c r="L59">
-        <v>0.4010001562744179</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>7666</v>
       </c>
       <c r="O59">
-        <v>7666</v>
+        <v>5132</v>
       </c>
       <c r="P59">
-        <v>5132</v>
+        <v>0.01</v>
       </c>
       <c r="Q59">
-        <v>0.01</v>
-      </c>
-      <c r="R59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>2309409</v>
       </c>
@@ -9187,37 +8600,34 @@
         <v>6467</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0.334467295500232</v>
       </c>
       <c r="L60">
-        <v>0.334467295500232</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>4304</v>
       </c>
       <c r="O60">
-        <v>4304</v>
+        <v>2163</v>
       </c>
       <c r="P60">
-        <v>2163</v>
+        <v>0.01</v>
       </c>
       <c r="Q60">
-        <v>0.01</v>
-      </c>
-      <c r="R60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>2323101</v>
       </c>
@@ -9240,37 +8650,34 @@
         <v>15894</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
-      </c>
-      <c r="J61" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0.3523971309928275</v>
       </c>
       <c r="L61">
-        <v>0.3523971309928275</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>10293</v>
       </c>
       <c r="O61">
-        <v>10293</v>
+        <v>5601</v>
       </c>
       <c r="P61">
-        <v>5601</v>
+        <v>0.01</v>
       </c>
       <c r="Q61">
-        <v>0.01</v>
-      </c>
-      <c r="R61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>2459512</v>
       </c>
@@ -9293,37 +8700,34 @@
         <v>9608</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J62" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0.03070358034970858</v>
       </c>
       <c r="L62">
-        <v>0.03070358034970858</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>9313</v>
       </c>
       <c r="O62">
-        <v>9313</v>
+        <v>295</v>
       </c>
       <c r="P62">
-        <v>295</v>
+        <v>0.01</v>
       </c>
       <c r="Q62">
-        <v>0.01</v>
-      </c>
-      <c r="R62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>2475510</v>
       </c>
@@ -9346,37 +8750,34 @@
         <v>11435</v>
       </c>
       <c r="H63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J63" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0.5290773939658941</v>
       </c>
       <c r="L63">
-        <v>0.5290773939658941</v>
+        <v>0</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>5385</v>
       </c>
       <c r="O63">
-        <v>5385</v>
+        <v>6050</v>
       </c>
       <c r="P63">
-        <v>6050</v>
+        <v>0.01</v>
       </c>
       <c r="Q63">
-        <v>0.01</v>
-      </c>
-      <c r="R63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>2496355</v>
       </c>
@@ -9399,37 +8800,34 @@
         <v>19308</v>
       </c>
       <c r="H64" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0.1126476072094469</v>
       </c>
       <c r="L64">
-        <v>0.1126476072094469</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>17133</v>
       </c>
       <c r="O64">
-        <v>17133</v>
+        <v>2175</v>
       </c>
       <c r="P64">
-        <v>2175</v>
+        <v>0.01</v>
       </c>
       <c r="Q64">
-        <v>0.01</v>
-      </c>
-      <c r="R64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>2528818</v>
       </c>
@@ -9452,37 +8850,34 @@
         <v>17977</v>
       </c>
       <c r="H65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0.3368748957000612</v>
       </c>
       <c r="L65">
-        <v>0.3368748957000612</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>11921</v>
       </c>
       <c r="O65">
-        <v>11921</v>
+        <v>6056</v>
       </c>
       <c r="P65">
-        <v>6056</v>
+        <v>0.01</v>
       </c>
       <c r="Q65">
-        <v>0.01</v>
-      </c>
-      <c r="R65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66">
         <v>2560777</v>
       </c>
@@ -9505,37 +8900,34 @@
         <v>11619</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
-      </c>
-      <c r="J66" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0.155435063258456</v>
       </c>
       <c r="L66">
-        <v>0.155435063258456</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>9813</v>
       </c>
       <c r="O66">
-        <v>9813</v>
+        <v>1806</v>
       </c>
       <c r="P66">
-        <v>1806</v>
+        <v>0.01</v>
       </c>
       <c r="Q66">
-        <v>0.01</v>
-      </c>
-      <c r="R66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>2593081</v>
       </c>
@@ -9558,37 +8950,34 @@
         <v>10034</v>
       </c>
       <c r="H67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0.1941399242575244</v>
       </c>
       <c r="L67">
-        <v>0.1941399242575244</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>8086</v>
       </c>
       <c r="O67">
-        <v>8086</v>
+        <v>1948</v>
       </c>
       <c r="P67">
-        <v>1948</v>
+        <v>0.01</v>
       </c>
       <c r="Q67">
-        <v>0.01</v>
-      </c>
-      <c r="R67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>2620181</v>
       </c>
@@ -9611,37 +9000,34 @@
         <v>19359</v>
       </c>
       <c r="H68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0.4744563252234103</v>
       </c>
       <c r="L68">
-        <v>0.4744563252234103</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>10174</v>
       </c>
       <c r="O68">
-        <v>10174</v>
+        <v>9185</v>
       </c>
       <c r="P68">
-        <v>9185</v>
+        <v>0.01</v>
       </c>
       <c r="Q68">
-        <v>0.01</v>
-      </c>
-      <c r="R68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>2791929</v>
       </c>
@@ -9664,37 +9050,34 @@
         <v>13998</v>
       </c>
       <c r="H69" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0.1497356765252179</v>
       </c>
       <c r="L69">
-        <v>0.1497356765252179</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>11902</v>
       </c>
       <c r="O69">
-        <v>11902</v>
+        <v>2096</v>
       </c>
       <c r="P69">
-        <v>2096</v>
+        <v>0.01</v>
       </c>
       <c r="Q69">
-        <v>0.01</v>
-      </c>
-      <c r="R69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>2811434</v>
       </c>
@@ -9717,37 +9100,34 @@
         <v>15030</v>
       </c>
       <c r="H70" t="s">
-        <v>24</v>
-      </c>
-      <c r="J70" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>0.3465735196274118</v>
       </c>
       <c r="L70">
-        <v>0.3465735196274118</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>9821</v>
       </c>
       <c r="O70">
-        <v>9821</v>
+        <v>5209</v>
       </c>
       <c r="P70">
-        <v>5209</v>
+        <v>0.01</v>
       </c>
       <c r="Q70">
-        <v>0.01</v>
-      </c>
-      <c r="R70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>2843994</v>
       </c>
@@ -9770,37 +9150,34 @@
         <v>19560</v>
       </c>
       <c r="H71" t="s">
-        <v>24</v>
-      </c>
-      <c r="J71" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>0.1792944785276074</v>
       </c>
       <c r="L71">
-        <v>0.1792944785276074</v>
+        <v>0</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>16053</v>
       </c>
       <c r="O71">
-        <v>16053</v>
+        <v>3507</v>
       </c>
       <c r="P71">
-        <v>3507</v>
+        <v>0.01</v>
       </c>
       <c r="Q71">
-        <v>0.01</v>
-      </c>
-      <c r="R71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>2967253</v>
       </c>
@@ -9823,37 +9200,34 @@
         <v>8446</v>
       </c>
       <c r="H72" t="s">
-        <v>24</v>
-      </c>
-      <c r="J72" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0.4085957849869761</v>
       </c>
       <c r="L72">
-        <v>0.4085957849869761</v>
+        <v>0</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>4995</v>
       </c>
       <c r="O72">
-        <v>4995</v>
+        <v>3451</v>
       </c>
       <c r="P72">
-        <v>3451</v>
+        <v>0.01</v>
       </c>
       <c r="Q72">
-        <v>0.01</v>
-      </c>
-      <c r="R72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>3128490</v>
       </c>
@@ -9876,37 +9250,34 @@
         <v>15102</v>
       </c>
       <c r="H73" t="s">
-        <v>24</v>
-      </c>
-      <c r="J73" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>0.07449344457687723</v>
       </c>
       <c r="L73">
-        <v>0.07449344457687723</v>
+        <v>0</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>13977</v>
       </c>
       <c r="O73">
-        <v>13977</v>
+        <v>1125</v>
       </c>
       <c r="P73">
-        <v>1125</v>
+        <v>0.01</v>
       </c>
       <c r="Q73">
-        <v>0.01</v>
-      </c>
-      <c r="R73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>3152819</v>
       </c>
@@ -9929,37 +9300,34 @@
         <v>5309</v>
       </c>
       <c r="H74" t="s">
-        <v>24</v>
-      </c>
-      <c r="J74" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0.3887737803729516</v>
       </c>
       <c r="L74">
-        <v>0.3887737803729516</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>3245</v>
       </c>
       <c r="O74">
-        <v>3245</v>
+        <v>2064</v>
       </c>
       <c r="P74">
-        <v>2064</v>
+        <v>0.01</v>
       </c>
       <c r="Q74">
-        <v>0.01</v>
-      </c>
-      <c r="R74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>3179521</v>
       </c>
@@ -9982,33 +9350,30 @@
         <v>10158</v>
       </c>
       <c r="H75" t="s">
-        <v>24</v>
-      </c>
-      <c r="J75" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0.560051191179366</v>
       </c>
       <c r="L75">
-        <v>0.560051191179366</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>4469</v>
       </c>
       <c r="O75">
-        <v>4469</v>
+        <v>5689</v>
       </c>
       <c r="P75">
-        <v>5689</v>
+        <v>0.01</v>
       </c>
       <c r="Q75">
-        <v>0.01</v>
-      </c>
-      <c r="R75">
         <v>1</v>
       </c>
     </row>
@@ -10027,57 +9392,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>16172.8125</v>
@@ -10124,7 +9489,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>9428.6</v>
@@ -10171,7 +9536,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>2846.5</v>
@@ -10218,7 +9583,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>8586.09090909091</v>
@@ -10265,7 +9630,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>13081.5</v>
@@ -10328,21 +9693,21 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -10354,12 +9719,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -10371,12 +9736,12 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -10388,12 +9753,12 @@
         <v>0.8</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -10405,12 +9770,12 @@
         <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -10422,7 +9787,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -10440,37 +9805,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -10505,7 +9870,7 @@
         <v>13077</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/dos_mqtt_iot/models/xgb/results/0.01_all.xlsx
+++ b/data/dos_mqtt_iot/models/xgb/results/0.01_all.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="53">
   <si>
     <t>start_idx_attack</t>
   </si>
@@ -44,13 +44,13 @@
     <t>attack_type</t>
   </si>
   <si>
-    <t>fpr</t>
-  </si>
-  <si>
     <t>pr</t>
   </si>
   <si>
     <t>rec</t>
+  </si>
+  <si>
+    <t>fpr</t>
   </si>
   <si>
     <t>tn</t>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>detected</t>
-  </si>
-  <si>
-    <t>29063697000 nanoseconds</t>
-  </si>
-  <si>
-    <t>1185590000 nanoseconds</t>
   </si>
   <si>
     <t>BF1_DDoS_AD</t>
@@ -193,7 +187,7 @@
 97    0.01
 98    0.01
 99    0.01
-Name: target_fpr, Length: 100, dtype: object</t>
+Name: target_fpr, Length: 100, dtype: float64</t>
   </si>
 </sst>
 </file>
@@ -618,11 +612,11 @@
       <c r="B2">
         <v>35538</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
+      <c r="C2" s="2">
+        <v>0.0003363853819444445</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.372210648148148E-05</v>
       </c>
       <c r="E2">
         <v>24366</v>
@@ -634,12 +628,12 @@
         <v>8145</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
         <v>0.08336402701043585</v>
       </c>
       <c r="L2">
@@ -684,12 +678,12 @@
         <v>17324</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
         <v>0.07284691757099977</v>
       </c>
       <c r="L3">
@@ -734,12 +728,12 @@
         <v>15881</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
         <v>0.04495938542912915</v>
       </c>
       <c r="L4">
@@ -784,12 +778,12 @@
         <v>12026</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
         <v>0.0793281224014635</v>
       </c>
       <c r="L5">
@@ -834,12 +828,12 @@
         <v>7540</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
         <v>0.08289124668435013</v>
       </c>
       <c r="L6">
@@ -884,12 +878,12 @@
         <v>26163</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
         <v>0.05893819516110538</v>
       </c>
       <c r="L7">
@@ -934,12 +928,12 @@
         <v>2278</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
         <v>0.02019315188762072</v>
       </c>
       <c r="L8">
@@ -984,12 +978,12 @@
         <v>4803</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
         <v>0.009577347491151364</v>
       </c>
       <c r="L9">
@@ -1034,12 +1028,12 @@
         <v>7719</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
         <v>0.01489830288897526</v>
       </c>
       <c r="L10">
@@ -1084,12 +1078,12 @@
         <v>24635</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
         <v>0.03965902171706921</v>
       </c>
       <c r="L11">
@@ -1134,12 +1128,12 @@
         <v>19165</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
         <v>0.06877119749543438</v>
       </c>
       <c r="L12">
@@ -1184,12 +1178,12 @@
         <v>17269</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
         <v>0.02426313046499508</v>
       </c>
       <c r="L13">
@@ -1234,12 +1228,12 @@
         <v>23752</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
         <v>0.02576625126305153</v>
       </c>
       <c r="L14">
@@ -1284,12 +1278,12 @@
         <v>20186</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
         <v>0.04522936688794214</v>
       </c>
       <c r="L15">
@@ -1334,12 +1328,12 @@
         <v>28005</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
         <v>0.0839850026780932</v>
       </c>
       <c r="L16">
@@ -1384,12 +1378,12 @@
         <v>23874</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
         <v>0.01625198961213035</v>
       </c>
       <c r="L17">
@@ -1434,12 +1428,12 @@
         <v>1510</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
@@ -1484,12 +1478,12 @@
         <v>4705</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
@@ -1534,12 +1528,12 @@
         <v>11947</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
         <v>0.0004185151083954131</v>
       </c>
       <c r="L20">
@@ -1584,12 +1578,12 @@
         <v>7888</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
         <v>0.006845841784989858</v>
       </c>
       <c r="L21">
@@ -1634,12 +1628,12 @@
         <v>11076</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
         <v>0.009570241964608163</v>
       </c>
       <c r="L22">
@@ -1684,12 +1678,12 @@
         <v>13118</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
         <v>0.007470651013874066</v>
       </c>
       <c r="L23">
@@ -1734,12 +1728,12 @@
         <v>12375</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
         <v>0.004767676767676768</v>
       </c>
       <c r="L24">
@@ -1784,12 +1778,12 @@
         <v>5607</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
@@ -1834,12 +1828,12 @@
         <v>11777</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
         <v>0.005858877473040673</v>
       </c>
       <c r="L26">
@@ -1884,12 +1878,12 @@
         <v>10367</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
         <v>0.01360084884730394</v>
       </c>
       <c r="L27">
@@ -1934,12 +1928,12 @@
         <v>6247</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
         <v>0.007043380822794942</v>
       </c>
       <c r="L28">
@@ -1984,12 +1978,12 @@
         <v>5284</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
         <v>0.003406510219530659</v>
       </c>
       <c r="L29">
@@ -2034,12 +2028,12 @@
         <v>4651</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
         <v>0.0122554289400129</v>
       </c>
       <c r="L30">
@@ -2084,12 +2078,12 @@
         <v>11716</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
         <v>0.007681802663024923</v>
       </c>
       <c r="L31">
@@ -2134,12 +2128,12 @@
         <v>8384</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
         <v>0.002624045801526718</v>
       </c>
       <c r="L32">
@@ -2184,12 +2178,12 @@
         <v>11582</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
         <v>0.006734588154032119</v>
       </c>
       <c r="L33">
@@ -2234,12 +2228,12 @@
         <v>5919</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
         <v>0.00963000506842372</v>
       </c>
       <c r="L34">
@@ -2284,12 +2278,12 @@
         <v>9098</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
         <v>0.09397669817542317</v>
       </c>
       <c r="L35">
@@ -2334,12 +2328,12 @@
         <v>2289</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
         <v>0.6330275229357798</v>
       </c>
       <c r="L36">
@@ -2384,12 +2378,12 @@
         <v>2073</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
         <v>0.2301013024602026</v>
       </c>
       <c r="L37">
@@ -2434,12 +2428,12 @@
         <v>1823</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
@@ -2484,12 +2478,12 @@
         <v>4098</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
@@ -2534,12 +2528,12 @@
         <v>3480</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
         <v>0.5169540229885058</v>
       </c>
       <c r="L40">
@@ -2584,12 +2578,12 @@
         <v>2446</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
         <v>0.7489779231398201</v>
       </c>
       <c r="L41">
@@ -2634,12 +2628,12 @@
         <v>1626</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
         <v>0.8056580565805658</v>
       </c>
       <c r="L42">
@@ -2684,12 +2678,12 @@
         <v>3040</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
         <v>0.8253289473684211</v>
       </c>
       <c r="L43">
@@ -2734,12 +2728,12 @@
         <v>3455</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
         <v>0.7939218523878437</v>
       </c>
       <c r="L44">
@@ -2784,12 +2778,12 @@
         <v>3678</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
         <v>0.7523110386079391</v>
       </c>
       <c r="L45">
@@ -2834,12 +2828,12 @@
         <v>2846</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
         <v>0.6788475052705552</v>
       </c>
       <c r="L46">
@@ -2884,12 +2878,12 @@
         <v>1957</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
         <v>0.7598364844149208</v>
       </c>
       <c r="L47">
@@ -2934,12 +2928,12 @@
         <v>3904</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
         <v>0.1677766393442623</v>
       </c>
       <c r="L48">
@@ -2984,12 +2978,12 @@
         <v>2693</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
@@ -3034,12 +3028,12 @@
         <v>2088</v>
       </c>
       <c r="H50" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
@@ -3084,12 +3078,12 @@
         <v>2095</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
         <v>0.3322195704057279</v>
       </c>
       <c r="L51">
@@ -3134,12 +3128,12 @@
         <v>3020</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
         <v>0.8026490066225166</v>
       </c>
       <c r="L52">
@@ -3184,12 +3178,12 @@
         <v>3682</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
         <v>0.7289516567083107</v>
       </c>
       <c r="L53">
@@ -3234,12 +3228,12 @@
         <v>3686</v>
       </c>
       <c r="H54" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
         <v>0.7699403147042865</v>
       </c>
       <c r="L54">
@@ -3284,12 +3278,12 @@
         <v>2267</v>
       </c>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
         <v>0.7944419938244376</v>
       </c>
       <c r="L55">
@@ -3334,12 +3328,12 @@
         <v>1520</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
         <v>0.7144736842105263</v>
       </c>
       <c r="L56">
@@ -3384,12 +3378,12 @@
         <v>4870</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
         <v>0.7478439425051334</v>
       </c>
       <c r="L57">
@@ -3434,12 +3428,12 @@
         <v>13583</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
         <v>0.6199661341382611</v>
       </c>
       <c r="L58">
@@ -3484,12 +3478,12 @@
         <v>11703</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
@@ -3534,12 +3528,12 @@
         <v>1676</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
@@ -3584,12 +3578,12 @@
         <v>3537</v>
       </c>
       <c r="H61" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
@@ -3634,12 +3628,12 @@
         <v>8493</v>
       </c>
       <c r="H62" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
         <v>0.6307547391969858</v>
       </c>
       <c r="L62">
@@ -3684,12 +3678,12 @@
         <v>6365</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
         <v>0.7005498821681069</v>
       </c>
       <c r="L63">
@@ -3734,12 +3728,12 @@
         <v>6122</v>
       </c>
       <c r="H64" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
         <v>0.7683763475988239</v>
       </c>
       <c r="L64">
@@ -3784,12 +3778,12 @@
         <v>7225</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
         <v>0.7278892733564014</v>
       </c>
       <c r="L65">
@@ -3834,12 +3828,12 @@
         <v>3872</v>
       </c>
       <c r="H66" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
@@ -3884,12 +3878,12 @@
         <v>19891</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
@@ -3934,12 +3928,12 @@
         <v>11590</v>
       </c>
       <c r="H68" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68">
         <v>0.1497842968075928</v>
       </c>
       <c r="L68">
@@ -3984,12 +3978,12 @@
         <v>13473</v>
       </c>
       <c r="H69" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
@@ -4034,12 +4028,12 @@
         <v>12799</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
@@ -4084,12 +4078,12 @@
         <v>7907</v>
       </c>
       <c r="H71" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71">
         <v>0.43847223978753</v>
       </c>
       <c r="L71">
@@ -4134,12 +4128,12 @@
         <v>13974</v>
       </c>
       <c r="H72" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
         <v>0.3589523400601116</v>
       </c>
       <c r="L72">
@@ -4184,12 +4178,12 @@
         <v>8372</v>
       </c>
       <c r="H73" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
         <v>0</v>
       </c>
       <c r="L73">
@@ -4234,12 +4228,12 @@
         <v>10269</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
@@ -4284,12 +4278,12 @@
         <v>5910</v>
       </c>
       <c r="H75" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
         <v>0</v>
       </c>
       <c r="L75">
@@ -4334,12 +4328,12 @@
         <v>7135</v>
       </c>
       <c r="H76" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
@@ -4384,12 +4378,12 @@
         <v>12798</v>
       </c>
       <c r="H77" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
         <v>0.4010001562744179</v>
       </c>
       <c r="L77">
@@ -4434,12 +4428,12 @@
         <v>6467</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
         <v>0.334467295500232</v>
       </c>
       <c r="L78">
@@ -4484,12 +4478,12 @@
         <v>15894</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79">
         <v>0.3523971309928275</v>
       </c>
       <c r="L79">
@@ -4534,12 +4528,12 @@
         <v>13013</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
@@ -4584,12 +4578,12 @@
         <v>9608</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81">
         <v>0.03070358034970858</v>
       </c>
       <c r="L81">
@@ -4634,12 +4628,12 @@
         <v>11435</v>
       </c>
       <c r="H82" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
         <v>0.5290773939658941</v>
       </c>
       <c r="L82">
@@ -4684,12 +4678,12 @@
         <v>19308</v>
       </c>
       <c r="H83" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83">
         <v>0.1126476072094469</v>
       </c>
       <c r="L83">
@@ -4734,12 +4728,12 @@
         <v>17977</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
       </c>
       <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84">
         <v>0.3368748957000612</v>
       </c>
       <c r="L84">
@@ -4784,12 +4778,12 @@
         <v>11619</v>
       </c>
       <c r="H85" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
       </c>
       <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85">
         <v>0.155435063258456</v>
       </c>
       <c r="L85">
@@ -4834,12 +4828,12 @@
         <v>10034</v>
       </c>
       <c r="H86" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86">
         <v>0.1941399242575244</v>
       </c>
       <c r="L86">
@@ -4884,12 +4878,12 @@
         <v>19359</v>
       </c>
       <c r="H87" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
         <v>0.4744563252234103</v>
       </c>
       <c r="L87">
@@ -4934,12 +4928,12 @@
         <v>17057</v>
       </c>
       <c r="H88" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
@@ -4984,12 +4978,12 @@
         <v>13998</v>
       </c>
       <c r="H89" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89">
         <v>0.1497356765252179</v>
       </c>
       <c r="L89">
@@ -5034,12 +5028,12 @@
         <v>15030</v>
       </c>
       <c r="H90" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90">
         <v>0.3465735196274118</v>
       </c>
       <c r="L90">
@@ -5084,12 +5078,12 @@
         <v>19560</v>
       </c>
       <c r="H91" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
       </c>
       <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91">
         <v>0.1792944785276074</v>
       </c>
       <c r="L91">
@@ -5134,12 +5128,12 @@
         <v>17258</v>
       </c>
       <c r="H92" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
@@ -5184,12 +5178,12 @@
         <v>10429</v>
       </c>
       <c r="H93" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
         <v>0</v>
       </c>
       <c r="L93">
@@ -5234,12 +5228,12 @@
         <v>9922</v>
       </c>
       <c r="H94" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
@@ -5284,12 +5278,12 @@
         <v>8446</v>
       </c>
       <c r="H95" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95">
         <v>0.4085957849869761</v>
       </c>
       <c r="L95">
@@ -5334,12 +5328,12 @@
         <v>18897</v>
       </c>
       <c r="H96" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
@@ -5384,12 +5378,12 @@
         <v>10342</v>
       </c>
       <c r="H97" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
@@ -5434,12 +5428,12 @@
         <v>19051</v>
       </c>
       <c r="H98" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
@@ -5484,12 +5478,12 @@
         <v>15102</v>
       </c>
       <c r="H99" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99">
         <v>0.07449344457687723</v>
       </c>
       <c r="L99">
@@ -5534,12 +5528,12 @@
         <v>5309</v>
       </c>
       <c r="H100" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
       </c>
       <c r="J100">
-        <v>1</v>
-      </c>
-      <c r="K100">
         <v>0.3887737803729516</v>
       </c>
       <c r="L100">
@@ -5584,12 +5578,12 @@
         <v>10158</v>
       </c>
       <c r="H101" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
       </c>
       <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="K101">
         <v>0.560051191179366</v>
       </c>
       <c r="L101">
@@ -5684,8 +5678,8 @@
       <c r="B2">
         <v>35538</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
+      <c r="C2" s="2">
+        <v>0.0003363853819444445</v>
       </c>
       <c r="D2">
         <v>1.18559</v>
@@ -5700,12 +5694,12 @@
         <v>8145</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
         <v>0.08336402701043585</v>
       </c>
       <c r="L2">
@@ -5750,12 +5744,12 @@
         <v>17324</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
         <v>0.07284691757099977</v>
       </c>
       <c r="L3">
@@ -5800,12 +5794,12 @@
         <v>15881</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
         <v>0.04495938542912915</v>
       </c>
       <c r="L4">
@@ -5850,12 +5844,12 @@
         <v>12026</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
         <v>0.0793281224014635</v>
       </c>
       <c r="L5">
@@ -5900,12 +5894,12 @@
         <v>7540</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
         <v>0.08289124668435013</v>
       </c>
       <c r="L6">
@@ -5950,12 +5944,12 @@
         <v>26163</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
         <v>0.05893819516110538</v>
       </c>
       <c r="L7">
@@ -6000,12 +5994,12 @@
         <v>2278</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
         <v>0.02019315188762072</v>
       </c>
       <c r="L8">
@@ -6050,12 +6044,12 @@
         <v>4803</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
         <v>0.009577347491151364</v>
       </c>
       <c r="L9">
@@ -6100,12 +6094,12 @@
         <v>7719</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
         <v>0.01489830288897526</v>
       </c>
       <c r="L10">
@@ -6150,12 +6144,12 @@
         <v>24635</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
         <v>0.03965902171706921</v>
       </c>
       <c r="L11">
@@ -6200,12 +6194,12 @@
         <v>19165</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
         <v>0.06877119749543438</v>
       </c>
       <c r="L12">
@@ -6250,12 +6244,12 @@
         <v>17269</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
         <v>0.02426313046499508</v>
       </c>
       <c r="L13">
@@ -6300,12 +6294,12 @@
         <v>23752</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
         <v>0.02576625126305153</v>
       </c>
       <c r="L14">
@@ -6350,12 +6344,12 @@
         <v>20186</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
         <v>0.04522936688794214</v>
       </c>
       <c r="L15">
@@ -6400,12 +6394,12 @@
         <v>28005</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
         <v>0.0839850026780932</v>
       </c>
       <c r="L16">
@@ -6450,12 +6444,12 @@
         <v>23874</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
         <v>0.01625198961213035</v>
       </c>
       <c r="L17">
@@ -6500,12 +6494,12 @@
         <v>11947</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
         <v>0.0004185151083954131</v>
       </c>
       <c r="L18">
@@ -6550,12 +6544,12 @@
         <v>7888</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
         <v>0.006845841784989858</v>
       </c>
       <c r="L19">
@@ -6600,12 +6594,12 @@
         <v>11076</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
         <v>0.009570241964608163</v>
       </c>
       <c r="L20">
@@ -6650,12 +6644,12 @@
         <v>13118</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
         <v>0.007470651013874066</v>
       </c>
       <c r="L21">
@@ -6700,12 +6694,12 @@
         <v>12375</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
         <v>0.004767676767676768</v>
       </c>
       <c r="L22">
@@ -6750,12 +6744,12 @@
         <v>11777</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
         <v>0.005858877473040673</v>
       </c>
       <c r="L23">
@@ -6800,12 +6794,12 @@
         <v>10367</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
         <v>0.01360084884730394</v>
       </c>
       <c r="L24">
@@ -6850,12 +6844,12 @@
         <v>6247</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
         <v>0.007043380822794942</v>
       </c>
       <c r="L25">
@@ -6900,12 +6894,12 @@
         <v>5284</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
         <v>0.003406510219530659</v>
       </c>
       <c r="L26">
@@ -6950,12 +6944,12 @@
         <v>4651</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
         <v>0.0122554289400129</v>
       </c>
       <c r="L27">
@@ -7000,12 +6994,12 @@
         <v>11716</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
         <v>0.007681802663024923</v>
       </c>
       <c r="L28">
@@ -7050,12 +7044,12 @@
         <v>8384</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
         <v>0.002624045801526718</v>
       </c>
       <c r="L29">
@@ -7100,12 +7094,12 @@
         <v>11582</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
         <v>0.006734588154032119</v>
       </c>
       <c r="L30">
@@ -7150,12 +7144,12 @@
         <v>5919</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
         <v>0.00963000506842372</v>
       </c>
       <c r="L31">
@@ -7200,12 +7194,12 @@
         <v>9098</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
         <v>0.09397669817542317</v>
       </c>
       <c r="L32">
@@ -7250,12 +7244,12 @@
         <v>2289</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
         <v>0.6330275229357798</v>
       </c>
       <c r="L33">
@@ -7300,12 +7294,12 @@
         <v>2073</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
         <v>0.2301013024602026</v>
       </c>
       <c r="L34">
@@ -7350,12 +7344,12 @@
         <v>3480</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
         <v>0.5169540229885058</v>
       </c>
       <c r="L35">
@@ -7400,12 +7394,12 @@
         <v>2446</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
         <v>0.7489779231398201</v>
       </c>
       <c r="L36">
@@ -7450,12 +7444,12 @@
         <v>1626</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
         <v>0.8056580565805658</v>
       </c>
       <c r="L37">
@@ -7500,12 +7494,12 @@
         <v>3040</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
         <v>0.8253289473684211</v>
       </c>
       <c r="L38">
@@ -7550,12 +7544,12 @@
         <v>3455</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
         <v>0.7939218523878437</v>
       </c>
       <c r="L39">
@@ -7600,12 +7594,12 @@
         <v>3678</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
         <v>0.7523110386079391</v>
       </c>
       <c r="L40">
@@ -7650,12 +7644,12 @@
         <v>2846</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
         <v>0.6788475052705552</v>
       </c>
       <c r="L41">
@@ -7700,12 +7694,12 @@
         <v>1957</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
         <v>0.7598364844149208</v>
       </c>
       <c r="L42">
@@ -7750,12 +7744,12 @@
         <v>3904</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
         <v>0.1677766393442623</v>
       </c>
       <c r="L43">
@@ -7800,12 +7794,12 @@
         <v>2095</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
         <v>0.3322195704057279</v>
       </c>
       <c r="L44">
@@ -7850,12 +7844,12 @@
         <v>3020</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
         <v>0.8026490066225166</v>
       </c>
       <c r="L45">
@@ -7900,12 +7894,12 @@
         <v>3682</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
         <v>0.7289516567083107</v>
       </c>
       <c r="L46">
@@ -7950,12 +7944,12 @@
         <v>3686</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
         <v>0.7699403147042865</v>
       </c>
       <c r="L47">
@@ -8000,12 +7994,12 @@
         <v>2267</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
         <v>0.7944419938244376</v>
       </c>
       <c r="L48">
@@ -8050,12 +8044,12 @@
         <v>1520</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
         <v>0.7144736842105263</v>
       </c>
       <c r="L49">
@@ -8100,12 +8094,12 @@
         <v>4870</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
         <v>0.7478439425051334</v>
       </c>
       <c r="L50">
@@ -8150,12 +8144,12 @@
         <v>13583</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
         <v>0.6199661341382611</v>
       </c>
       <c r="L51">
@@ -8200,12 +8194,12 @@
         <v>8493</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
         <v>0.6307547391969858</v>
       </c>
       <c r="L52">
@@ -8250,12 +8244,12 @@
         <v>6365</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
         <v>0.7005498821681069</v>
       </c>
       <c r="L53">
@@ -8300,12 +8294,12 @@
         <v>6122</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
         <v>0.7683763475988239</v>
       </c>
       <c r="L54">
@@ -8350,12 +8344,12 @@
         <v>7225</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
         <v>0.7278892733564014</v>
       </c>
       <c r="L55">
@@ -8400,12 +8394,12 @@
         <v>11590</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
         <v>0.1497842968075928</v>
       </c>
       <c r="L56">
@@ -8450,12 +8444,12 @@
         <v>7907</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
         <v>0.43847223978753</v>
       </c>
       <c r="L57">
@@ -8500,12 +8494,12 @@
         <v>13974</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
         <v>0.3589523400601116</v>
       </c>
       <c r="L58">
@@ -8550,12 +8544,12 @@
         <v>12798</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59">
         <v>0.4010001562744179</v>
       </c>
       <c r="L59">
@@ -8600,12 +8594,12 @@
         <v>6467</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
         <v>0.334467295500232</v>
       </c>
       <c r="L60">
@@ -8650,12 +8644,12 @@
         <v>15894</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
         <v>0.3523971309928275</v>
       </c>
       <c r="L61">
@@ -8700,12 +8694,12 @@
         <v>9608</v>
       </c>
       <c r="H62" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
         <v>0.03070358034970858</v>
       </c>
       <c r="L62">
@@ -8750,12 +8744,12 @@
         <v>11435</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
         <v>0.5290773939658941</v>
       </c>
       <c r="L63">
@@ -8800,12 +8794,12 @@
         <v>19308</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
         <v>0.1126476072094469</v>
       </c>
       <c r="L64">
@@ -8850,12 +8844,12 @@
         <v>17977</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
         <v>0.3368748957000612</v>
       </c>
       <c r="L65">
@@ -8900,12 +8894,12 @@
         <v>11619</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
         <v>0.155435063258456</v>
       </c>
       <c r="L66">
@@ -8950,12 +8944,12 @@
         <v>10034</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
         <v>0.1941399242575244</v>
       </c>
       <c r="L67">
@@ -9000,12 +8994,12 @@
         <v>19359</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68">
         <v>0.4744563252234103</v>
       </c>
       <c r="L68">
@@ -9050,12 +9044,12 @@
         <v>13998</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
         <v>0.1497356765252179</v>
       </c>
       <c r="L69">
@@ -9100,12 +9094,12 @@
         <v>15030</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
         <v>0.3465735196274118</v>
       </c>
       <c r="L70">
@@ -9150,12 +9144,12 @@
         <v>19560</v>
       </c>
       <c r="H71" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71">
         <v>0.1792944785276074</v>
       </c>
       <c r="L71">
@@ -9200,12 +9194,12 @@
         <v>8446</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
         <v>0.4085957849869761</v>
       </c>
       <c r="L72">
@@ -9250,12 +9244,12 @@
         <v>15102</v>
       </c>
       <c r="H73" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
         <v>0.07449344457687723</v>
       </c>
       <c r="L73">
@@ -9300,12 +9294,12 @@
         <v>5309</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74">
         <v>0.3887737803729516</v>
       </c>
       <c r="L74">
@@ -9350,12 +9344,12 @@
         <v>10158</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75">
         <v>0.560051191179366</v>
       </c>
       <c r="L75">
@@ -9392,57 +9386,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>16172.8125</v>
@@ -9489,7 +9483,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>9428.6</v>
@@ -9536,7 +9530,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>2846.5</v>
@@ -9583,7 +9577,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>8586.09090909091</v>
@@ -9601,7 +9595,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.5689148214639902</v>
+        <v>0.5689148214639901</v>
       </c>
       <c r="I5">
         <v>1.896375272727273</v>
@@ -9630,7 +9624,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>13081.5</v>
@@ -9648,7 +9642,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.2892323182658731</v>
+        <v>0.289232318265873</v>
       </c>
       <c r="I6">
         <v>4.3654980625</v>
@@ -9693,13 +9687,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -9707,7 +9701,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -9719,12 +9713,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -9736,12 +9730,12 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -9753,12 +9747,12 @@
         <v>0.8</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -9770,12 +9764,12 @@
         <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -9787,7 +9781,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -9805,34 +9799,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>15</v>
@@ -9870,7 +9864,7 @@
         <v>13077</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/dos_mqtt_iot/models/xgb/results/0.01_all.xlsx
+++ b/data/dos_mqtt_iot/models/xgb/results/0.01_all.xlsx
@@ -7,18 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="sequences_results" sheetId="1" r:id="rId1"/>
+    <sheet name="all_sequences_results" sheetId="1" r:id="rId1"/>
     <sheet name="detected_sequences_results" sheetId="2" r:id="rId2"/>
-    <sheet name="avg_results_for_attacks_type" sheetId="3" r:id="rId3"/>
-    <sheet name="attacks_detection_rate" sheetId="4" r:id="rId4"/>
-    <sheet name="all_summary" sheetId="5" r:id="rId5"/>
+    <sheet name="avg_results_for_attack_type" sheetId="3" r:id="rId3"/>
+    <sheet name="detection_rate_for_attack_type" sheetId="4" r:id="rId4"/>
+    <sheet name="overall_results" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="52">
   <si>
     <t>start_idx_attack</t>
   </si>
@@ -174,20 +174,6 @@
   </si>
   <si>
     <t>max_idx_detection_rel</t>
-  </si>
-  <si>
-    <t>0     0.01
-1     0.01
-2     0.01
-3     0.01
-4     0.01
-      ... 
-95    0.01
-96    0.01
-97    0.01
-98    0.01
-99    0.01
-Name: target_fpr, Length: 100, dtype: float64</t>
   </si>
 </sst>
 </file>
@@ -9864,7 +9850,7 @@
         <v>13077</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
